--- a/Python Scripts/sample_dsf.xlsx
+++ b/Python Scripts/sample_dsf.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\GitHub\DFMBA2023\Python Scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FD55B9-071A-4906-B495-35258F6A0CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="270" windowWidth="11100" windowHeight="5325"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_dsf" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="sample_dsf">'sample_dsf'!$A$1:$T$161</definedName>
+    <definedName name="sample_dsf">sample_dsf!$A$1:$T$161</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="24">
   <si>
     <t>CUSIP</t>
   </si>
@@ -90,26 +96,24 @@
   <si>
     <t>77467X10</t>
   </si>
-  <si>
-    <t>41043F20</t>
-  </si>
-  <si>
-    <t>00621210</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -133,23 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -157,14 +150,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,39 +168,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -283,178 +279,186 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="2" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="8" max="20" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -542,7 +546,7 @@
         <v>139.1199951171875</v>
       </c>
       <c r="I2">
-        <v>144.0399932861328</v>
+        <v>144.03999328613281</v>
       </c>
       <c r="J2">
         <v>141</v>
@@ -551,7 +555,7 @@
         <v>112825</v>
       </c>
       <c r="L2">
-        <v>-.024828800931572914</v>
+        <v>-2.4828800931572914E-2</v>
       </c>
       <c r="M2">
         <v>140.75999450683594</v>
@@ -569,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>143.4199981689453</v>
+        <v>143.41999816894531</v>
       </c>
       <c r="S2">
         <v>1648</v>
       </c>
       <c r="T2">
-        <v>-.024828800931572914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.4828800931572914E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -613,13 +617,13 @@
         <v>84331</v>
       </c>
       <c r="L3">
-        <v>.01432627160102129</v>
+        <v>1.432627160102129E-2</v>
       </c>
       <c r="M3">
         <v>143.02000427246094</v>
       </c>
       <c r="N3">
-        <v>143.4499969482422</v>
+        <v>143.44999694824219</v>
       </c>
       <c r="O3">
         <v>18774</v>
@@ -631,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>140.60000610351562</v>
+        <v>140.60000610351563</v>
       </c>
       <c r="S3">
         <v>1272</v>
       </c>
       <c r="T3">
-        <v>.01432627160102129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.432627160102129E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -669,16 +673,16 @@
         <v>147.36500549316406</v>
       </c>
       <c r="J4">
-        <v>144.83999633789062</v>
+        <v>144.83999633789063</v>
       </c>
       <c r="K4">
         <v>88233</v>
       </c>
       <c r="L4">
-        <v>.012725437059998512</v>
+        <v>1.2725437059998512E-2</v>
       </c>
       <c r="M4">
-        <v>144.83999633789062</v>
+        <v>144.83999633789063</v>
       </c>
       <c r="N4">
         <v>145.05999755859375</v>
@@ -699,10 +703,10 @@
         <v>1068</v>
       </c>
       <c r="T4">
-        <v>.012725437059998512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2725437059998512E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -725,7 +729,7 @@
         <v>43472</v>
       </c>
       <c r="H5">
-        <v>142.8300018310547</v>
+        <v>142.83000183105469</v>
       </c>
       <c r="I5">
         <v>147.8699951171875</v>
@@ -737,10 +741,10 @@
         <v>79539</v>
       </c>
       <c r="L5">
-        <v>.003935427404940128</v>
+        <v>3.9354274049401283E-3</v>
       </c>
       <c r="M5">
-        <v>145.1999969482422</v>
+        <v>145.19999694824219</v>
       </c>
       <c r="N5">
         <v>145.41000366210938</v>
@@ -761,10 +765,10 @@
         <v>1276</v>
       </c>
       <c r="T5">
-        <v>.003935427404940128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.9354274049401283E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -793,19 +797,19 @@
         <v>149.30230712890625</v>
       </c>
       <c r="J6">
-        <v>148.6999969482422</v>
+        <v>148.69999694824219</v>
       </c>
       <c r="K6">
         <v>70200</v>
       </c>
       <c r="L6">
-        <v>.022625632584095</v>
+        <v>2.2625632584095001E-2</v>
       </c>
       <c r="M6">
         <v>148.27999877929688</v>
       </c>
       <c r="N6">
-        <v>148.6999969482422</v>
+        <v>148.69999694824219</v>
       </c>
       <c r="O6">
         <v>18774</v>
@@ -823,10 +827,10 @@
         <v>923</v>
       </c>
       <c r="T6">
-        <v>.022625632584095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.2625632584095001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -849,19 +853,19 @@
         <v>43474</v>
       </c>
       <c r="H7">
-        <v>146.09500122070312</v>
+        <v>146.09500122070313</v>
       </c>
       <c r="I7">
         <v>151</v>
       </c>
       <c r="J7">
-        <v>147.7100067138672</v>
+        <v>147.71000671386719</v>
       </c>
       <c r="K7">
         <v>63591</v>
       </c>
       <c r="L7">
-        <v>-.006657634396106005</v>
+        <v>-6.6576343961060047E-3</v>
       </c>
       <c r="M7">
         <v>147.16000366210938</v>
@@ -885,10 +889,10 @@
         <v>1035</v>
       </c>
       <c r="T7">
-        <v>-.006657634396106005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-6.6576343961060047E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -923,7 +927,7 @@
         <v>66117</v>
       </c>
       <c r="L8">
-        <v>.008124005980789661</v>
+        <v>8.1240059807896614E-3</v>
       </c>
       <c r="M8">
         <v>148.91000366210938</v>
@@ -941,16 +945,16 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>147.2100067138672</v>
+        <v>147.21000671386719</v>
       </c>
       <c r="S8">
         <v>1005</v>
       </c>
       <c r="T8">
-        <v>.008124005980789661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.1240059807896614E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -973,7 +977,7 @@
         <v>43476</v>
       </c>
       <c r="H9">
-        <v>147.7100067138672</v>
+        <v>147.71000671386719</v>
       </c>
       <c r="I9">
         <v>150.44000244140625</v>
@@ -985,7 +989,7 @@
         <v>58050</v>
       </c>
       <c r="L9">
-        <v>-.00013433799904305488</v>
+        <v>-1.3433799904305488E-4</v>
       </c>
       <c r="M9">
         <v>148.6199951171875</v>
@@ -1003,16 +1007,16 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>149.2100067138672</v>
+        <v>149.21000671386719</v>
       </c>
       <c r="S9">
         <v>1054</v>
       </c>
       <c r="T9">
-        <v>-.00013433799904305488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.3433799904305488E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1035,25 +1039,25 @@
         <v>43479</v>
       </c>
       <c r="H10">
-        <v>147.6999969482422</v>
+        <v>147.69999694824219</v>
       </c>
       <c r="I10">
         <v>149.56500244140625</v>
       </c>
       <c r="J10">
-        <v>147.6999969482422</v>
+        <v>147.69999694824219</v>
       </c>
       <c r="K10">
         <v>92311</v>
       </c>
       <c r="L10">
-        <v>-.00799249392002821</v>
+        <v>-7.9924939200282097E-3</v>
       </c>
       <c r="M10">
-        <v>147.6999969482422</v>
+        <v>147.69999694824219</v>
       </c>
       <c r="N10">
-        <v>147.97000122070312</v>
+        <v>147.97000122070313</v>
       </c>
       <c r="O10">
         <v>18774</v>
@@ -1071,10 +1075,10 @@
         <v>941</v>
       </c>
       <c r="T10">
-        <v>-.00799249392002821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-7.9924939200282097E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>43480</v>
       </c>
       <c r="H11">
-        <v>145.1999969482422</v>
+        <v>145.19999694824219</v>
       </c>
       <c r="I11">
         <v>148.5</v>
@@ -1109,7 +1113,7 @@
         <v>89393</v>
       </c>
       <c r="L11">
-        <v>-.011509796604514122</v>
+        <v>-1.1509796604514122E-2</v>
       </c>
       <c r="M11">
         <v>145.61000061035156</v>
@@ -1133,10 +1137,10 @@
         <v>1569</v>
       </c>
       <c r="T11">
-        <v>-.011509796604514122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.1509796604514122E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1165,19 +1169,19 @@
         <v>148.19500732421875</v>
       </c>
       <c r="J12">
-        <v>143.83999633789062</v>
+        <v>143.83999633789063</v>
       </c>
       <c r="K12">
         <v>105068</v>
       </c>
       <c r="L12">
-        <v>-.014794545248150826</v>
+        <v>-1.4794545248150826E-2</v>
       </c>
       <c r="M12">
         <v>143.67999267578125</v>
       </c>
       <c r="N12">
-        <v>143.83999633789062</v>
+        <v>143.83999633789063</v>
       </c>
       <c r="O12">
         <v>18774</v>
@@ -1195,10 +1199,10 @@
         <v>1688</v>
       </c>
       <c r="T12">
-        <v>-.014794545248150826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.4794545248150826E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>144</v>
       </c>
       <c r="I13">
-        <v>147.08999633789062</v>
+        <v>147.08999633789063</v>
       </c>
       <c r="J13">
         <v>145.75999450683594</v>
@@ -1233,7 +1237,7 @@
         <v>85383</v>
       </c>
       <c r="L13">
-        <v>.013348151929676533</v>
+        <v>1.3348151929676533E-2</v>
       </c>
       <c r="M13">
         <v>145.82000732421875</v>
@@ -1257,10 +1261,10 @@
         <v>1735</v>
       </c>
       <c r="T13">
-        <v>.013348151929676533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.3348151929676533E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>98586</v>
       </c>
       <c r="L14">
-        <v>.010153752751648426</v>
+        <v>1.0153752751648426E-2</v>
       </c>
       <c r="M14">
         <v>146.86000061035156</v>
@@ -1313,16 +1317,16 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>145.5399932861328</v>
+        <v>145.53999328613281</v>
       </c>
       <c r="S14">
         <v>1245</v>
       </c>
       <c r="T14">
-        <v>.010153752751648426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.0153752751648426E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1345,22 +1349,22 @@
         <v>43487</v>
       </c>
       <c r="H15">
-        <v>143.4199981689453</v>
+        <v>143.41999816894531</v>
       </c>
       <c r="I15">
-        <v>147.6999969482422</v>
+        <v>147.69999694824219</v>
       </c>
       <c r="J15">
-        <v>144.5399932861328</v>
+        <v>144.53999328613281</v>
       </c>
       <c r="K15">
         <v>112506</v>
       </c>
       <c r="L15">
-        <v>-.018337490037083626</v>
+        <v>-1.8337490037083626E-2</v>
       </c>
       <c r="M15">
-        <v>144.4600067138672</v>
+        <v>144.46000671386719</v>
       </c>
       <c r="N15">
         <v>144.94000244140625</v>
@@ -1381,10 +1385,10 @@
         <v>1253</v>
       </c>
       <c r="T15">
-        <v>-.018337490037083626</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.8337490037083626E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1410,22 +1414,22 @@
         <v>144</v>
       </c>
       <c r="I16">
-        <v>146.72000122070312</v>
+        <v>146.72000122070313</v>
       </c>
       <c r="J16">
-        <v>146.2100067138672</v>
+        <v>146.21000671386719</v>
       </c>
       <c r="K16">
         <v>138011</v>
       </c>
       <c r="L16">
-        <v>.011553988792002201</v>
+        <v>1.1553988792002201E-2</v>
       </c>
       <c r="M16">
         <v>146.05999755859375</v>
       </c>
       <c r="N16">
-        <v>146.2100067138672</v>
+        <v>146.21000671386719</v>
       </c>
       <c r="O16">
         <v>18774</v>
@@ -1443,10 +1447,10 @@
         <v>1834</v>
       </c>
       <c r="T16">
-        <v>.011553988792002201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.1553988792002201E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1475,19 +1479,19 @@
         <v>146.91000366210938</v>
       </c>
       <c r="J17">
-        <v>145.8000030517578</v>
+        <v>145.80000305175781</v>
       </c>
       <c r="K17">
         <v>90458</v>
       </c>
       <c r="L17">
-        <v>-.0028042106423527002</v>
+        <v>-2.8042106423527002E-3</v>
       </c>
       <c r="M17">
-        <v>145.8000030517578</v>
+        <v>145.80000305175781</v>
       </c>
       <c r="N17">
-        <v>146.1699981689453</v>
+        <v>146.16999816894531</v>
       </c>
       <c r="O17">
         <v>18783</v>
@@ -1499,16 +1503,16 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>146.0800018310547</v>
+        <v>146.08000183105469</v>
       </c>
       <c r="S17">
         <v>1249</v>
       </c>
       <c r="T17">
-        <v>-.0028042106423527002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.8042106423527002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1537,13 +1541,13 @@
         <v>147.44000244140625</v>
       </c>
       <c r="J18">
-        <v>144.5500030517578</v>
+        <v>144.55000305175781</v>
       </c>
       <c r="K18">
         <v>90705</v>
       </c>
       <c r="L18">
-        <v>-.008573387749493122</v>
+        <v>-8.5733877494931221E-3</v>
       </c>
       <c r="M18">
         <v>144.36000061035156</v>
@@ -1567,10 +1571,10 @@
         <v>1334</v>
       </c>
       <c r="T18">
-        <v>-.008573387749493122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-8.5733877494931221E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1605,7 +1609,7 @@
         <v>156991</v>
       </c>
       <c r="L19">
-        <v>-.03147701919078827</v>
+        <v>-3.1477019190788269E-2</v>
       </c>
       <c r="M19">
         <v>140</v>
@@ -1629,10 +1633,10 @@
         <v>2150</v>
       </c>
       <c r="T19">
-        <v>-.03147701919078827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-3.1477019190788269E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1655,10 +1659,10 @@
         <v>43494</v>
       </c>
       <c r="H20">
-        <v>146.8000030517578</v>
+        <v>146.80000305175781</v>
       </c>
       <c r="I20">
-        <v>162.83999633789062</v>
+        <v>162.83999633789063</v>
       </c>
       <c r="J20">
         <v>156.82000732421875</v>
@@ -1667,7 +1671,7 @@
         <v>251608</v>
       </c>
       <c r="L20">
-        <v>.12014290690422058</v>
+        <v>0.12014290690422058</v>
       </c>
       <c r="M20">
         <v>156.82000732421875</v>
@@ -1691,10 +1695,10 @@
         <v>3503</v>
       </c>
       <c r="T20">
-        <v>.12014290690422058</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.12014290690422058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>149.8800048828125</v>
       </c>
       <c r="I21">
-        <v>159.60000610351562</v>
+        <v>159.60000610351563</v>
       </c>
       <c r="J21">
         <v>150.5</v>
@@ -1729,13 +1733,13 @@
         <v>87854</v>
       </c>
       <c r="L21">
-        <v>-.04030102863907814</v>
+        <v>-4.030102863907814E-2</v>
       </c>
       <c r="M21">
         <v>150.5</v>
       </c>
       <c r="N21">
-        <v>150.7100067138672</v>
+        <v>150.71000671386719</v>
       </c>
       <c r="O21">
         <v>18783</v>
@@ -1753,10 +1757,10 @@
         <v>1435</v>
       </c>
       <c r="T21">
-        <v>-.04030102863907814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-4.030102863907814E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1785,16 +1789,16 @@
         <v>154.3800048828125</v>
       </c>
       <c r="J22">
-        <v>154.35000610351562</v>
+        <v>154.35000610351563</v>
       </c>
       <c r="K22">
         <v>109251</v>
       </c>
       <c r="L22">
-        <v>.02558143623173237</v>
+        <v>2.5581436231732368E-2</v>
       </c>
       <c r="M22">
-        <v>154.2899932861328</v>
+        <v>154.28999328613281</v>
       </c>
       <c r="N22">
         <v>154.30999755859375</v>
@@ -1809,16 +1813,16 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>149.9600067138672</v>
+        <v>149.96000671386719</v>
       </c>
       <c r="S22">
         <v>1718</v>
       </c>
       <c r="T22">
-        <v>.02558143623173237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.5581436231732368E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1847,16 +1851,16 @@
         <v>155.14999389648438</v>
       </c>
       <c r="J23">
-        <v>154.8000030517578</v>
+        <v>154.80000305175781</v>
       </c>
       <c r="K23">
         <v>98096</v>
       </c>
       <c r="L23">
-        <v>.0029154319781810045</v>
+        <v>2.9154319781810045E-3</v>
       </c>
       <c r="M23">
-        <v>154.8000030517578</v>
+        <v>154.80000305175781</v>
       </c>
       <c r="N23">
         <v>155.07000732421875</v>
@@ -1871,16 +1875,16 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <v>154.85000610351562</v>
+        <v>154.85000610351563</v>
       </c>
       <c r="S23">
         <v>1356</v>
       </c>
       <c r="T23">
-        <v>.0029154319781810045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.9154319781810045E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>154.80999755859375</v>
       </c>
       <c r="I24">
-        <v>159.0500030517578</v>
+        <v>159.05000305175781</v>
       </c>
       <c r="J24">
         <v>158.44000244140625</v>
@@ -1915,10 +1919,10 @@
         <v>98915</v>
       </c>
       <c r="L24">
-        <v>.02351420745253563</v>
+        <v>2.3514207452535629E-2</v>
       </c>
       <c r="M24">
-        <v>158.22000122070312</v>
+        <v>158.22000122070313</v>
       </c>
       <c r="N24">
         <v>158.44000244140625</v>
@@ -1939,10 +1943,10 @@
         <v>1246</v>
       </c>
       <c r="T24">
-        <v>.02351420745253563</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.3514207452535629E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>157.55999755859375</v>
       </c>
       <c r="I25">
-        <v>159.22000122070312</v>
+        <v>159.22000122070313</v>
       </c>
       <c r="J25">
         <v>158.25999450683594</v>
@@ -1977,7 +1981,7 @@
         <v>73235</v>
       </c>
       <c r="L25">
-        <v>-.0011361268116161227</v>
+        <v>-1.1361268116161227E-3</v>
       </c>
       <c r="M25">
         <v>158.25999450683594</v>
@@ -1995,16 +1999,16 @@
         <v>1</v>
       </c>
       <c r="R25">
-        <v>159.10000610351562</v>
+        <v>159.10000610351563</v>
       </c>
       <c r="S25">
         <v>883</v>
       </c>
       <c r="T25">
-        <v>-.0011361268116161227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.1361268116161227E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>50952</v>
       </c>
       <c r="L26">
-        <v>-.00012630490527953953</v>
+        <v>-1.2630490527953953E-4</v>
       </c>
       <c r="M26">
         <v>158.13999938964844</v>
@@ -2063,10 +2067,10 @@
         <v>1116</v>
       </c>
       <c r="T26">
-        <v>-.00012630490527953953</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.2630490527953953E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2101,10 +2105,10 @@
         <v>61396</v>
       </c>
       <c r="L27">
-        <v>-.011564723215997219</v>
+        <v>-1.1564723215997219E-2</v>
       </c>
       <c r="M27">
-        <v>156.2899932861328</v>
+        <v>156.28999328613281</v>
       </c>
       <c r="N27">
         <v>156.41000366210938</v>
@@ -2125,10 +2129,10 @@
         <v>1117</v>
       </c>
       <c r="T27">
-        <v>-.011564723215997219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.1564723215997219E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2151,10 +2155,10 @@
         <v>43504</v>
       </c>
       <c r="H28">
-        <v>154.9199981689453</v>
+        <v>154.91999816894531</v>
       </c>
       <c r="I28">
-        <v>159.22000122070312</v>
+        <v>159.22000122070313</v>
       </c>
       <c r="J28">
         <v>158.99000549316406</v>
@@ -2163,7 +2167,7 @@
         <v>61978</v>
       </c>
       <c r="L28">
-        <v>.016495119780302048</v>
+        <v>1.6495119780302048E-2</v>
       </c>
       <c r="M28">
         <v>158.99000549316406</v>
@@ -2181,16 +2185,16 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <v>155.9199981689453</v>
+        <v>155.91999816894531</v>
       </c>
       <c r="S28">
         <v>1193</v>
       </c>
       <c r="T28">
-        <v>.016495119780302048</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.6495119780302048E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2225,13 +2229,13 @@
         <v>62202</v>
       </c>
       <c r="L29">
-        <v>.004717277828603983</v>
+        <v>4.7172778286039829E-3</v>
       </c>
       <c r="M29">
         <v>159.74000549316406</v>
       </c>
       <c r="N29">
-        <v>159.8000030517578</v>
+        <v>159.80000305175781</v>
       </c>
       <c r="O29">
         <v>18783</v>
@@ -2249,10 +2253,10 @@
         <v>1117</v>
       </c>
       <c r="T29">
-        <v>.004717277828603983</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.7172778286039829E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2291,7 @@
         <v>80771</v>
       </c>
       <c r="L30">
-        <v>-.0034431139938533306</v>
+        <v>-3.4431139938533306E-3</v>
       </c>
       <c r="M30">
         <v>159.05999755859375</v>
@@ -2305,16 +2309,16 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <v>160.3000030517578</v>
+        <v>160.30000305175781</v>
       </c>
       <c r="S30">
         <v>1484</v>
       </c>
       <c r="T30">
-        <v>-.0034431139938533306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-3.4431139938533306E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -2337,22 +2341,22 @@
         <v>43509</v>
       </c>
       <c r="H31">
-        <v>156.83999633789062</v>
+        <v>156.83999633789063</v>
       </c>
       <c r="I31">
         <v>159.44000244140625</v>
       </c>
       <c r="J31">
-        <v>157.83999633789062</v>
+        <v>157.83999633789063</v>
       </c>
       <c r="K31">
         <v>80031</v>
       </c>
       <c r="L31">
-        <v>-.00848047062754631</v>
+        <v>-8.4804706275463104E-3</v>
       </c>
       <c r="M31">
-        <v>157.8300018310547</v>
+        <v>157.83000183105469</v>
       </c>
       <c r="N31">
         <v>157.8699951171875</v>
@@ -2367,16 +2371,16 @@
         <v>1</v>
       </c>
       <c r="R31">
-        <v>159.1999969482422</v>
+        <v>159.19999694824219</v>
       </c>
       <c r="S31">
         <v>1652</v>
       </c>
       <c r="T31">
-        <v>-.00848047062754631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-8.4804706275463104E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>60465</v>
       </c>
       <c r="L32">
-        <v>-.0032944059930741787</v>
+        <v>-3.2944059930741787E-3</v>
       </c>
       <c r="M32">
         <v>157.05999755859375</v>
@@ -2435,10 +2439,10 @@
         <v>1088</v>
       </c>
       <c r="T32">
-        <v>-.0032944059930741787</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-3.2944059930741787E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2461,7 +2465,7 @@
         <v>43511</v>
       </c>
       <c r="H33">
-        <v>156.3000030517578</v>
+        <v>156.30000305175781</v>
       </c>
       <c r="I33">
         <v>159.86000061035156</v>
@@ -2473,7 +2477,7 @@
         <v>97453</v>
       </c>
       <c r="L33">
-        <v>-.0021612737327814102</v>
+        <v>-2.1612737327814102E-3</v>
       </c>
       <c r="M33">
         <v>156.99000549316406</v>
@@ -2491,16 +2495,16 @@
         <v>1</v>
       </c>
       <c r="R33">
-        <v>157.83999633789062</v>
+        <v>157.83999633789063</v>
       </c>
       <c r="S33">
         <v>1562</v>
       </c>
       <c r="T33">
-        <v>-.0021612737327814102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.1612737327814102E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2529,19 +2533,19 @@
         <v>158.38999938964844</v>
       </c>
       <c r="J34">
-        <v>156.9199981689453</v>
+        <v>156.91999816894531</v>
       </c>
       <c r="K34">
         <v>82116</v>
       </c>
       <c r="L34">
-        <v>-.0003821987484116107</v>
+        <v>-3.8219874841161072E-4</v>
       </c>
       <c r="M34">
         <v>156.82000732421875</v>
       </c>
       <c r="N34">
-        <v>156.9199981689453</v>
+        <v>156.91999816894531</v>
       </c>
       <c r="O34">
         <v>18783</v>
@@ -2553,16 +2557,16 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>156.9199981689453</v>
+        <v>156.91999816894531</v>
       </c>
       <c r="S34">
         <v>1350</v>
       </c>
       <c r="T34">
-        <v>-.0003821987484116107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-3.8219874841161072E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2585,7 +2589,7 @@
         <v>43516</v>
       </c>
       <c r="H35">
-        <v>156.0800018310547</v>
+        <v>156.08000183105469</v>
       </c>
       <c r="I35">
         <v>157.8699951171875</v>
@@ -2597,10 +2601,10 @@
         <v>80699</v>
       </c>
       <c r="L35">
-        <v>-.0011470346944406629</v>
+        <v>-1.1470346944406629E-3</v>
       </c>
       <c r="M35">
-        <v>156.58999633789062</v>
+        <v>156.58999633789063</v>
       </c>
       <c r="N35">
         <v>156.74000549316406</v>
@@ -2621,10 +2625,10 @@
         <v>1348</v>
       </c>
       <c r="T35">
-        <v>-.0011470346944406629</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.1470346944406629E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2659,7 +2663,7 @@
         <v>77652</v>
       </c>
       <c r="L36">
-        <v>-.0003190190764144063</v>
+        <v>-3.190190764144063E-4</v>
       </c>
       <c r="M36">
         <v>156.5</v>
@@ -2683,10 +2687,10 @@
         <v>1545</v>
       </c>
       <c r="T36">
-        <v>-.0003190190764144063</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-3.190190764144063E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2712,7 +2716,7 @@
         <v>155.5</v>
       </c>
       <c r="I37">
-        <v>156.7100067138672</v>
+        <v>156.71000671386719</v>
       </c>
       <c r="J37">
         <v>156.07000732421875</v>
@@ -2721,10 +2725,10 @@
         <v>86510</v>
       </c>
       <c r="L37">
-        <v>-.003956826403737068</v>
+        <v>-3.9568264037370682E-3</v>
       </c>
       <c r="M37">
-        <v>155.97000122070312</v>
+        <v>155.97000122070313</v>
       </c>
       <c r="N37">
         <v>156.07000732421875</v>
@@ -2739,16 +2743,16 @@
         <v>1</v>
       </c>
       <c r="R37">
-        <v>156.2899932861328</v>
+        <v>156.28999328613281</v>
       </c>
       <c r="S37">
         <v>1465</v>
       </c>
       <c r="T37">
-        <v>-.003956826403737068</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-3.9568264037370682E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -2774,19 +2778,19 @@
         <v>152.8699951171875</v>
       </c>
       <c r="I38">
-        <v>156.33999633789062</v>
+        <v>156.33999633789063</v>
       </c>
       <c r="J38">
-        <v>154.3300018310547</v>
+        <v>154.33000183105469</v>
       </c>
       <c r="K38">
         <v>76689</v>
       </c>
       <c r="L38">
-        <v>-.011148878373205662</v>
+        <v>-1.1148878373205662E-2</v>
       </c>
       <c r="M38">
-        <v>154.33999633789062</v>
+        <v>154.33999633789063</v>
       </c>
       <c r="N38">
         <v>154.44000244140625</v>
@@ -2801,16 +2805,16 @@
         <v>1</v>
       </c>
       <c r="R38">
-        <v>156.33999633789062</v>
+        <v>156.33999633789063</v>
       </c>
       <c r="S38">
         <v>1341</v>
       </c>
       <c r="T38">
-        <v>-.011148878373205662</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.1148878373205662E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2833,10 +2837,10 @@
         <v>43522</v>
       </c>
       <c r="H39">
-        <v>149.23550415039062</v>
+        <v>149.23550415039063</v>
       </c>
       <c r="I39">
-        <v>154.72000122070312</v>
+        <v>154.72000122070313</v>
       </c>
       <c r="J39">
         <v>152.69000244140625</v>
@@ -2845,13 +2849,13 @@
         <v>59728</v>
       </c>
       <c r="L39">
-        <v>-.010626574978232384</v>
+        <v>-1.0626574978232384E-2</v>
       </c>
       <c r="M39">
         <v>152.69000244140625</v>
       </c>
       <c r="N39">
-        <v>152.7100067138672</v>
+        <v>152.71000671386719</v>
       </c>
       <c r="O39">
         <v>18783</v>
@@ -2869,10 +2873,10 @@
         <v>948</v>
       </c>
       <c r="T39">
-        <v>-.010626574978232384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.0626574978232384E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2907,7 +2911,7 @@
         <v>65252</v>
       </c>
       <c r="L40">
-        <v>.0003274808404967189</v>
+        <v>3.2748084049671888E-4</v>
       </c>
       <c r="M40">
         <v>152.5</v>
@@ -2931,10 +2935,10 @@
         <v>1041</v>
       </c>
       <c r="T40">
-        <v>.0003274808404967189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.2748084049671888E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -2969,7 +2973,7 @@
         <v>57748</v>
       </c>
       <c r="L41">
-        <v>.016629522666335106</v>
+        <v>1.6629522666335106E-2</v>
       </c>
       <c r="M41">
         <v>155.27999877929688</v>
@@ -2993,10 +2997,10 @@
         <v>934</v>
       </c>
       <c r="T41">
-        <v>.016629522666335106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.6629522666335106E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -3019,25 +3023,25 @@
         <v>43467</v>
       </c>
       <c r="H42">
-        <v>.4399000108242035</v>
+        <v>0.43990001082420349</v>
       </c>
       <c r="I42">
-        <v>.4699000120162964</v>
+        <v>0.46990001201629639</v>
       </c>
       <c r="J42">
-        <v>.4399000108242035</v>
+        <v>0.43990001082420349</v>
       </c>
       <c r="K42">
         <v>5671</v>
       </c>
       <c r="L42">
-        <v>-.04348767548799515</v>
+        <v>-4.3487675487995148E-2</v>
       </c>
       <c r="M42">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="N42">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="O42">
         <v>26924</v>
@@ -3049,13 +3053,13 @@
         <v>1</v>
       </c>
       <c r="R42">
-        <v>.4699000120162964</v>
+        <v>0.46990001201629639</v>
       </c>
       <c r="T42">
-        <v>-.04348767548799515</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-4.3487675487995148E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -3078,25 +3082,25 @@
         <v>43468</v>
       </c>
       <c r="H43">
-        <v>.4399000108242035</v>
+        <v>0.43990001082420349</v>
       </c>
       <c r="I43">
-        <v>.4999000132083893</v>
+        <v>0.49990001320838928</v>
       </c>
       <c r="J43">
-        <v>.4789929986000061</v>
+        <v>0.4789929986000061</v>
       </c>
       <c r="K43">
         <v>123325</v>
       </c>
       <c r="L43">
-        <v>.08886789530515671</v>
+        <v>8.8867895305156708E-2</v>
       </c>
       <c r="M43">
-        <v>.4699999988079071</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="N43">
-        <v>.4749999940395355</v>
+        <v>0.47499999403953552</v>
       </c>
       <c r="O43">
         <v>26924</v>
@@ -3108,13 +3112,13 @@
         <v>1</v>
       </c>
       <c r="R43">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="T43">
-        <v>.08886789530515671</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.8867895305156708E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -3137,25 +3141,25 @@
         <v>43469</v>
       </c>
       <c r="H44">
-        <v>.4011000096797943</v>
+        <v>0.40110000967979431</v>
       </c>
       <c r="I44">
-        <v>.4790000021457672</v>
+        <v>0.47900000214576721</v>
       </c>
       <c r="J44">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="K44">
         <v>11984</v>
       </c>
       <c r="L44">
-        <v>-.06052909046411514</v>
+        <v>-6.0529090464115143E-2</v>
       </c>
       <c r="M44">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="N44">
-        <v>.45809999108314514</v>
+        <v>0.45809999108314514</v>
       </c>
       <c r="O44">
         <v>26924</v>
@@ -3167,13 +3171,13 @@
         <v>1</v>
       </c>
       <c r="R44">
-        <v>.45899999141693115</v>
+        <v>0.45899999141693115</v>
       </c>
       <c r="T44">
-        <v>-.06052909046411514</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-6.0529090464115143E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -3196,13 +3200,13 @@
         <v>43472</v>
       </c>
       <c r="H45">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="I45">
-        <v>.4699999988079071</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="J45">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="K45">
         <v>2794</v>
@@ -3211,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="N45">
-        <v>.4699999988079071</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="O45">
         <v>26924</v>
@@ -3226,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="R45">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3255,25 +3259,25 @@
         <v>43473</v>
       </c>
       <c r="H46">
-        <v>.4699999988079071</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="I46">
-        <v>.4708090126514435</v>
+        <v>0.47080901265144348</v>
       </c>
       <c r="J46">
-        <v>.4699999988079071</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="K46">
         <v>3395</v>
       </c>
       <c r="L46">
-        <v>.04444446787238121</v>
+        <v>4.444446787238121E-2</v>
       </c>
       <c r="M46">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="N46">
-        <v>.4699999988079071</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="O46">
         <v>26924</v>
@@ -3285,13 +3289,13 @@
         <v>1</v>
       </c>
       <c r="R46">
-        <v>.4699999988079071</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="T46">
-        <v>.04444446787238121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.444446787238121E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -3314,25 +3318,25 @@
         <v>43474</v>
       </c>
       <c r="H47">
-        <v>.4602999985218048</v>
+        <v>0.46029999852180481</v>
       </c>
       <c r="I47">
-        <v>.4699999988079071</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="J47">
-        <v>.4602999985218048</v>
+        <v>0.46029999852180481</v>
       </c>
       <c r="K47">
         <v>4946</v>
       </c>
       <c r="L47">
-        <v>-.020638298243284225</v>
+        <v>-2.0638298243284225E-2</v>
       </c>
       <c r="M47">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="N47">
-        <v>.4699999988079071</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="O47">
         <v>26924</v>
@@ -3344,13 +3348,13 @@
         <v>1</v>
       </c>
       <c r="R47">
-        <v>.4699999988079071</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="T47">
-        <v>-.020638298243284225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.0638298243284225E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -3373,25 +3377,25 @@
         <v>43475</v>
       </c>
       <c r="H48">
-        <v>.45500001311302185</v>
+        <v>0.45500001311302185</v>
       </c>
       <c r="I48">
-        <v>.4648999869823456</v>
+        <v>0.46489998698234558</v>
       </c>
       <c r="J48">
-        <v>.45500001311302185</v>
+        <v>0.45500001311302185</v>
       </c>
       <c r="K48">
         <v>13847</v>
       </c>
       <c r="L48">
-        <v>-.011514198035001755</v>
+        <v>-1.1514198035001755E-2</v>
       </c>
       <c r="M48">
-        <v>.45500001311302185</v>
+        <v>0.45500001311302185</v>
       </c>
       <c r="N48">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="O48">
         <v>26924</v>
@@ -3403,13 +3407,13 @@
         <v>1</v>
       </c>
       <c r="R48">
-        <v>.4648999869823456</v>
+        <v>0.46489998698234558</v>
       </c>
       <c r="T48">
-        <v>-.011514198035001755</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.1514198035001755E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -3432,13 +3436,13 @@
         <v>43476</v>
       </c>
       <c r="H49">
-        <v>.45500001311302185</v>
+        <v>0.45500001311302185</v>
       </c>
       <c r="I49">
-        <v>.4625999927520752</v>
+        <v>0.4625999927520752</v>
       </c>
       <c r="J49">
-        <v>.45500001311302185</v>
+        <v>0.45500001311302185</v>
       </c>
       <c r="K49">
         <v>20543</v>
@@ -3447,10 +3451,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>.45500001311302185</v>
+        <v>0.45500001311302185</v>
       </c>
       <c r="N49">
-        <v>.4625999927520752</v>
+        <v>0.4625999927520752</v>
       </c>
       <c r="O49">
         <v>26924</v>
@@ -3462,13 +3466,13 @@
         <v>1</v>
       </c>
       <c r="R49">
-        <v>.45500001311302185</v>
+        <v>0.45500001311302185</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -3491,25 +3495,25 @@
         <v>43479</v>
       </c>
       <c r="H50">
-        <v>.4449999928474426</v>
+        <v>0.44499999284744263</v>
       </c>
       <c r="I50">
-        <v>.45730000734329224</v>
+        <v>0.45730000734329224</v>
       </c>
       <c r="J50">
-        <v>.4449999928474426</v>
+        <v>0.44499999284744263</v>
       </c>
       <c r="K50">
         <v>4484</v>
       </c>
       <c r="L50">
-        <v>-.021978065371513367</v>
+        <v>-2.1978065371513367E-2</v>
       </c>
       <c r="M50">
-        <v>.4449999928474426</v>
+        <v>0.44499999284744263</v>
       </c>
       <c r="N50">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="O50">
         <v>26924</v>
@@ -3521,13 +3525,13 @@
         <v>1</v>
       </c>
       <c r="R50">
-        <v>.45730000734329224</v>
+        <v>0.45730000734329224</v>
       </c>
       <c r="T50">
-        <v>-.021978065371513367</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.1978065371513367E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -3550,25 +3554,25 @@
         <v>43480</v>
       </c>
       <c r="H51">
-        <v>.4451499879360199</v>
+        <v>0.4451499879360199</v>
       </c>
       <c r="I51">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="J51">
-        <v>.4498499929904938</v>
+        <v>0.44984999299049377</v>
       </c>
       <c r="K51">
         <v>2012</v>
       </c>
       <c r="L51">
-        <v>.010898876935243607</v>
+        <v>1.0898876935243607E-2</v>
       </c>
       <c r="M51">
-        <v>.4449999928474426</v>
+        <v>0.44499999284744263</v>
       </c>
       <c r="N51">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="O51">
         <v>26924</v>
@@ -3580,13 +3584,13 @@
         <v>1</v>
       </c>
       <c r="R51">
-        <v>.4453909993171692</v>
+        <v>0.44539099931716919</v>
       </c>
       <c r="T51">
-        <v>.010898876935243607</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.0898876935243607E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -3609,25 +3613,25 @@
         <v>43481</v>
       </c>
       <c r="H52">
-        <v>.42989999055862427</v>
+        <v>0.42989999055862427</v>
       </c>
       <c r="I52">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="J52">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="K52">
         <v>3488</v>
       </c>
       <c r="L52">
-        <v>-.044125787913799286</v>
+        <v>-4.4125787913799286E-2</v>
       </c>
       <c r="M52">
-        <v>.42989999055862427</v>
+        <v>0.42989999055862427</v>
       </c>
       <c r="N52">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="O52">
         <v>26924</v>
@@ -3639,13 +3643,13 @@
         <v>1</v>
       </c>
       <c r="R52">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="T52">
-        <v>-.044125787913799286</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-4.4125787913799286E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -3668,25 +3672,25 @@
         <v>43482</v>
       </c>
       <c r="H53">
-        <v>.4171000123023987</v>
+        <v>0.41710001230239868</v>
       </c>
       <c r="I53">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="J53">
-        <v>.4171000123023987</v>
+        <v>0.41710001230239868</v>
       </c>
       <c r="K53">
         <v>1477</v>
       </c>
       <c r="L53">
-        <v>-.02999998815357685</v>
+        <v>-2.9999988153576851E-2</v>
       </c>
       <c r="M53">
-        <v>.41999998688697815</v>
+        <v>0.41999998688697815</v>
       </c>
       <c r="N53">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="O53">
         <v>26924</v>
@@ -3698,13 +3702,13 @@
         <v>1</v>
       </c>
       <c r="R53">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="T53">
-        <v>-.02999998815357685</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.9999988153576851E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -3727,25 +3731,25 @@
         <v>43483</v>
       </c>
       <c r="H54">
-        <v>.4092000126838684</v>
+        <v>0.40920001268386841</v>
       </c>
       <c r="I54">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="J54">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="K54">
         <v>33379</v>
       </c>
       <c r="L54">
-        <v>.03092782199382782</v>
+        <v>3.092782199382782E-2</v>
       </c>
       <c r="M54">
-        <v>.4171000123023987</v>
+        <v>0.41710001230239868</v>
       </c>
       <c r="N54">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="O54">
         <v>26924</v>
@@ -3757,13 +3761,13 @@
         <v>1</v>
       </c>
       <c r="R54">
-        <v>.4271000027656555</v>
+        <v>0.42710000276565552</v>
       </c>
       <c r="T54">
-        <v>.03092782199382782</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.092782199382782E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -3786,13 +3790,13 @@
         <v>43487</v>
       </c>
       <c r="H55">
-        <v>.3700000047683716</v>
+        <v>0.37000000476837158</v>
       </c>
       <c r="I55">
-        <v>.49369698762893677</v>
+        <v>0.49369698762893677</v>
       </c>
       <c r="J55">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="K55">
         <v>404034</v>
@@ -3801,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="N55">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="O55">
         <v>26924</v>
@@ -3816,13 +3820,13 @@
         <v>1</v>
       </c>
       <c r="R55">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -3845,25 +3849,25 @@
         <v>43488</v>
       </c>
       <c r="H56">
-        <v>.37119999527931213</v>
+        <v>0.37119999527931213</v>
       </c>
       <c r="I56">
-        <v>.4401000142097473</v>
+        <v>0.44010001420974731</v>
       </c>
       <c r="J56">
-        <v>.4009999930858612</v>
+        <v>0.40099999308586121</v>
       </c>
       <c r="K56">
         <v>141110</v>
       </c>
       <c r="L56">
-        <v>-.0674418956041336</v>
+        <v>-6.7441895604133606E-2</v>
       </c>
       <c r="M56">
-        <v>.4009999930858612</v>
+        <v>0.40099999308586121</v>
       </c>
       <c r="N56">
-        <v>.41999998688697815</v>
+        <v>0.41999998688697815</v>
       </c>
       <c r="O56">
         <v>26924</v>
@@ -3875,13 +3879,13 @@
         <v>1</v>
       </c>
       <c r="R56">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="T56">
-        <v>-.0674418956041336</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-6.7441895604133606E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -3904,25 +3908,25 @@
         <v>43489</v>
       </c>
       <c r="H57">
-        <v>.4009999930858612</v>
+        <v>0.40099999308586121</v>
       </c>
       <c r="I57">
-        <v>.42100000381469727</v>
+        <v>0.42100000381469727</v>
       </c>
       <c r="J57">
-        <v>.42089998722076416</v>
+        <v>0.42089998722076416</v>
       </c>
       <c r="K57">
         <v>23856</v>
       </c>
       <c r="L57">
-        <v>.04962592199444771</v>
+        <v>4.9625921994447708E-2</v>
       </c>
       <c r="M57">
-        <v>.4009999930858612</v>
+        <v>0.40099999308586121</v>
       </c>
       <c r="N57">
-        <v>.42100000381469727</v>
+        <v>0.42100000381469727</v>
       </c>
       <c r="O57">
         <v>26924</v>
@@ -3934,13 +3938,13 @@
         <v>1</v>
       </c>
       <c r="R57">
-        <v>.41999998688697815</v>
+        <v>0.41999998688697815</v>
       </c>
       <c r="T57">
-        <v>.04962592199444771</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.9625921994447708E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -3963,25 +3967,25 @@
         <v>43490</v>
       </c>
       <c r="H58">
-        <v>.4108999967575073</v>
+        <v>0.41089999675750732</v>
       </c>
       <c r="I58">
-        <v>.4408999979496002</v>
+        <v>0.44089999794960022</v>
       </c>
       <c r="J58">
-        <v>.4408999979496002</v>
+        <v>0.44089999794960022</v>
       </c>
       <c r="K58">
         <v>103268</v>
       </c>
       <c r="L58">
-        <v>.04751725122332573</v>
+        <v>4.7517251223325729E-2</v>
       </c>
       <c r="M58">
-        <v>.4309999942779541</v>
+        <v>0.4309999942779541</v>
       </c>
       <c r="N58">
-        <v>.4408999979496002</v>
+        <v>0.44089999794960022</v>
       </c>
       <c r="O58">
         <v>26924</v>
@@ -3993,13 +3997,13 @@
         <v>1</v>
       </c>
       <c r="R58">
-        <v>.4309000074863434</v>
+        <v>0.43090000748634338</v>
       </c>
       <c r="T58">
-        <v>.04751725122332573</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.7517251223325729E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -4022,25 +4026,25 @@
         <v>43493</v>
       </c>
       <c r="H59">
-        <v>.4020000100135803</v>
+        <v>0.40200001001358032</v>
       </c>
       <c r="I59">
-        <v>.5</v>
+        <v>0.5</v>
       </c>
       <c r="J59">
-        <v>.49000000953674316</v>
+        <v>0.49000000953674316</v>
       </c>
       <c r="K59">
         <v>180742</v>
       </c>
       <c r="L59">
-        <v>.11136315017938614</v>
+        <v>0.11136315017938614</v>
       </c>
       <c r="M59">
-        <v>.48500001430511475</v>
+        <v>0.48500001430511475</v>
       </c>
       <c r="N59">
-        <v>.49000000953674316</v>
+        <v>0.49000000953674316</v>
       </c>
       <c r="O59">
         <v>26924</v>
@@ -4052,13 +4056,13 @@
         <v>1</v>
       </c>
       <c r="R59">
-        <v>.5</v>
+        <v>0.5</v>
       </c>
       <c r="T59">
-        <v>.11136315017938614</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.11136315017938614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -4081,25 +4085,25 @@
         <v>43494</v>
       </c>
       <c r="H60">
-        <v>.4156000018119812</v>
+        <v>0.4156000018119812</v>
       </c>
       <c r="I60">
-        <v>.49900001287460327</v>
+        <v>0.49900001287460327</v>
       </c>
       <c r="J60">
-        <v>.47999998927116394</v>
+        <v>0.47999998927116394</v>
       </c>
       <c r="K60">
         <v>69765</v>
       </c>
       <c r="L60">
-        <v>-.020408203825354576</v>
+        <v>-2.0408203825354576E-2</v>
       </c>
       <c r="M60">
-        <v>.4620000123977661</v>
+        <v>0.46200001239776611</v>
       </c>
       <c r="N60">
-        <v>.47999998927116394</v>
+        <v>0.47999998927116394</v>
       </c>
       <c r="O60">
         <v>26924</v>
@@ -4111,13 +4115,13 @@
         <v>1</v>
       </c>
       <c r="R60">
-        <v>.49900001287460327</v>
+        <v>0.49900001287460327</v>
       </c>
       <c r="T60">
-        <v>-.020408203825354576</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.0408203825354576E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -4140,25 +4144,25 @@
         <v>43495</v>
       </c>
       <c r="H61">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="I61">
-        <v>.5268999934196472</v>
+        <v>0.52689999341964722</v>
       </c>
       <c r="J61">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="K61">
         <v>388608</v>
       </c>
       <c r="L61">
-        <v>-.041666626930236816</v>
+        <v>-4.1666626930236816E-2</v>
       </c>
       <c r="M61">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="N61">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="O61">
         <v>26924</v>
@@ -4170,13 +4174,13 @@
         <v>1</v>
       </c>
       <c r="R61">
-        <v>.47999998927116394</v>
+        <v>0.47999998927116394</v>
       </c>
       <c r="T61">
-        <v>-.041666626930236816</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-4.1666626930236816E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -4199,25 +4203,25 @@
         <v>43496</v>
       </c>
       <c r="H62">
-        <v>.4223000109195709</v>
+        <v>0.42230001091957092</v>
       </c>
       <c r="I62">
-        <v>.4699999988079071</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="J62">
-        <v>.4223000109195709</v>
+        <v>0.42230001091957092</v>
       </c>
       <c r="K62">
         <v>89588</v>
       </c>
       <c r="L62">
-        <v>-.08195651322603226</v>
+        <v>-8.1956513226032257E-2</v>
       </c>
       <c r="M62">
-        <v>.43799999356269836</v>
+        <v>0.43799999356269836</v>
       </c>
       <c r="N62">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="O62">
         <v>26924</v>
@@ -4229,13 +4233,13 @@
         <v>1</v>
       </c>
       <c r="R62">
-        <v>.4691999852657318</v>
+        <v>0.46919998526573181</v>
       </c>
       <c r="T62">
-        <v>-.08195651322603226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-8.1956513226032257E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -4258,25 +4262,25 @@
         <v>43497</v>
       </c>
       <c r="H63">
-        <v>.4227310121059418</v>
+        <v>0.42273101210594177</v>
       </c>
       <c r="I63">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="J63">
-        <v>.4227310121059418</v>
+        <v>0.42273101210594177</v>
       </c>
       <c r="K63">
         <v>56976</v>
       </c>
       <c r="L63">
-        <v>.0010206042788922787</v>
+        <v>1.0206042788922787E-3</v>
       </c>
       <c r="M63">
-        <v>.41999998688697815</v>
+        <v>0.41999998688697815</v>
       </c>
       <c r="N63">
-        <v>.4230000078678131</v>
+        <v>0.42300000786781311</v>
       </c>
       <c r="O63">
         <v>26924</v>
@@ -4288,13 +4292,13 @@
         <v>1</v>
       </c>
       <c r="R63">
-        <v>.44339999556541443</v>
+        <v>0.44339999556541443</v>
       </c>
       <c r="T63">
-        <v>.0010206042788922787</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.0206042788922787E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -4317,25 +4321,25 @@
         <v>43500</v>
       </c>
       <c r="H64">
-        <v>.4226999878883362</v>
+        <v>0.42269998788833618</v>
       </c>
       <c r="I64">
-        <v>.4749999940395355</v>
+        <v>0.47499999403953552</v>
       </c>
       <c r="J64">
-        <v>.4226999878883362</v>
+        <v>0.42269998788833618</v>
       </c>
       <c r="K64">
         <v>104935</v>
       </c>
       <c r="L64">
-        <v>-7.338997238548473e-05</v>
+        <v>-7.3389972385484725E-5</v>
       </c>
       <c r="M64">
-        <v>.42399999499320984</v>
+        <v>0.42399999499320984</v>
       </c>
       <c r="N64">
-        <v>.4339999854564667</v>
+        <v>0.43399998545646667</v>
       </c>
       <c r="O64">
         <v>26924</v>
@@ -4347,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="R64">
-        <v>.42719998955726624</v>
+        <v>0.42719998955726624</v>
       </c>
       <c r="T64">
-        <v>-7.338997238548473e-05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-7.3389972385484725E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -4376,25 +4380,25 @@
         <v>43501</v>
       </c>
       <c r="H65">
-        <v>.4000999927520752</v>
+        <v>0.4000999927520752</v>
       </c>
       <c r="I65">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="J65">
-        <v>.4000999927520752</v>
+        <v>0.4000999927520752</v>
       </c>
       <c r="K65">
         <v>39641</v>
       </c>
       <c r="L65">
-        <v>-.05346580594778061</v>
+        <v>-5.3465805947780609E-2</v>
       </c>
       <c r="M65">
-        <v>.4050000011920929</v>
+        <v>0.4050000011920929</v>
       </c>
       <c r="N65">
-        <v>.41600000858306885</v>
+        <v>0.41600000858306885</v>
       </c>
       <c r="O65">
         <v>26924</v>
@@ -4406,13 +4410,13 @@
         <v>1</v>
       </c>
       <c r="R65">
-        <v>.41100001335144043</v>
+        <v>0.41100001335144043</v>
       </c>
       <c r="T65">
-        <v>-.05346580594778061</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-5.3465805947780609E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -4435,25 +4439,25 @@
         <v>43502</v>
       </c>
       <c r="H66">
-        <v>.4000999927520752</v>
+        <v>0.4000999927520752</v>
       </c>
       <c r="I66">
-        <v>.43799999356269836</v>
+        <v>0.43799999356269836</v>
       </c>
       <c r="J66">
-        <v>.42010000348091125</v>
+        <v>0.42010000348091125</v>
       </c>
       <c r="K66">
         <v>39370</v>
       </c>
       <c r="L66">
-        <v>.04998753219842911</v>
+        <v>4.9987532198429108E-2</v>
       </c>
       <c r="M66">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="N66">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="O66">
         <v>26924</v>
@@ -4465,13 +4469,13 @@
         <v>1</v>
       </c>
       <c r="R66">
-        <v>.4000999927520752</v>
+        <v>0.4000999927520752</v>
       </c>
       <c r="T66">
-        <v>.04998753219842911</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.9987532198429108E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -4494,25 +4498,25 @@
         <v>43503</v>
       </c>
       <c r="H67">
-        <v>.4099999964237213</v>
+        <v>0.40999999642372131</v>
       </c>
       <c r="I67">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="J67">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="K67">
         <v>3970</v>
       </c>
       <c r="L67">
-        <v>.04736965894699097</v>
+        <v>4.7369658946990967E-2</v>
       </c>
       <c r="M67">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="N67">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="O67">
         <v>26924</v>
@@ -4524,13 +4528,13 @@
         <v>1</v>
       </c>
       <c r="R67">
-        <v>.4357999861240387</v>
+        <v>0.4357999861240387</v>
       </c>
       <c r="T67">
-        <v>.04736965894699097</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.7369658946990967E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -4553,25 +4557,25 @@
         <v>43504</v>
       </c>
       <c r="H68">
-        <v>.4000999927520752</v>
+        <v>0.4000999927520752</v>
       </c>
       <c r="I68">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="J68">
-        <v>.4020000100135803</v>
+        <v>0.40200001001358032</v>
       </c>
       <c r="K68">
         <v>8271</v>
       </c>
       <c r="L68">
-        <v>-.08636360615491867</v>
+        <v>-8.6363606154918671E-2</v>
       </c>
       <c r="M68">
-        <v>.41200000047683716</v>
+        <v>0.41200000047683716</v>
       </c>
       <c r="N68">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="O68">
         <v>26924</v>
@@ -4583,13 +4587,13 @@
         <v>1</v>
       </c>
       <c r="R68">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="T68">
-        <v>-.08636360615491867</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-8.6363606154918671E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -4612,25 +4616,25 @@
         <v>43507</v>
       </c>
       <c r="H69">
-        <v>.4000999927520752</v>
+        <v>0.4000999927520752</v>
       </c>
       <c r="I69">
-        <v>.41999998688697815</v>
+        <v>0.41999998688697815</v>
       </c>
       <c r="J69">
-        <v>.4099999964237213</v>
+        <v>0.40999999642372131</v>
       </c>
       <c r="K69">
         <v>54764</v>
       </c>
       <c r="L69">
-        <v>.01990046352148056</v>
+        <v>1.990046352148056E-2</v>
       </c>
       <c r="M69">
-        <v>.4041000008583069</v>
+        <v>0.40410000085830688</v>
       </c>
       <c r="N69">
-        <v>.4099999964237213</v>
+        <v>0.40999999642372131</v>
       </c>
       <c r="O69">
         <v>26924</v>
@@ -4642,13 +4646,13 @@
         <v>1</v>
       </c>
       <c r="R69">
-        <v>.4002000093460083</v>
+        <v>0.4002000093460083</v>
       </c>
       <c r="T69">
-        <v>.01990046352148056</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.990046352148056E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -4671,25 +4675,25 @@
         <v>43508</v>
       </c>
       <c r="H70">
-        <v>.40926599502563477</v>
+        <v>0.40926599502563477</v>
       </c>
       <c r="I70">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="J70">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="K70">
         <v>38377</v>
       </c>
       <c r="L70">
-        <v>.04878051578998566</v>
+        <v>4.8780515789985657E-2</v>
       </c>
       <c r="M70">
-        <v>.41999998688697815</v>
+        <v>0.41999998688697815</v>
       </c>
       <c r="N70">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="O70">
         <v>26924</v>
@@ -4701,13 +4705,13 @@
         <v>1</v>
       </c>
       <c r="R70">
-        <v>.4099999964237213</v>
+        <v>0.40999999642372131</v>
       </c>
       <c r="T70">
-        <v>.04878051578998566</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.8780515789985657E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -4730,25 +4734,25 @@
         <v>43509</v>
       </c>
       <c r="H71">
-        <v>.4106000065803528</v>
+        <v>0.41060000658035278</v>
       </c>
       <c r="I71">
-        <v>.43849998712539673</v>
+        <v>0.43849998712539673</v>
       </c>
       <c r="J71">
-        <v>.42010000348091125</v>
+        <v>0.42010000348091125</v>
       </c>
       <c r="K71">
         <v>6097</v>
       </c>
       <c r="L71">
-        <v>-.023023264482617378</v>
+        <v>-2.3023264482617378E-2</v>
       </c>
       <c r="M71">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="N71">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="O71">
         <v>26924</v>
@@ -4760,13 +4764,13 @@
         <v>1</v>
       </c>
       <c r="R71">
-        <v>.4106000065803528</v>
+        <v>0.41060000658035278</v>
       </c>
       <c r="T71">
-        <v>-.023023264482617378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.3023264482617378E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -4789,25 +4793,25 @@
         <v>43510</v>
       </c>
       <c r="H72">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="I72">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="J72">
-        <v>.4401000142097473</v>
+        <v>0.44010001420974731</v>
       </c>
       <c r="K72">
         <v>25005</v>
       </c>
       <c r="L72">
-        <v>.04760773852467537</v>
+        <v>4.7607738524675369E-2</v>
       </c>
       <c r="M72">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="N72">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="O72">
         <v>26924</v>
@@ -4819,13 +4823,13 @@
         <v>1</v>
       </c>
       <c r="R72">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="T72">
-        <v>.04760773852467537</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.7607738524675369E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -4848,25 +4852,25 @@
         <v>43511</v>
       </c>
       <c r="H73">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="I73">
-        <v>.45730000734329224</v>
+        <v>0.45730000734329224</v>
       </c>
       <c r="J73">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="K73">
         <v>7824</v>
       </c>
       <c r="L73">
-        <v>-.022949345409870148</v>
+        <v>-2.2949345409870148E-2</v>
       </c>
       <c r="M73">
-        <v>.4339999854564667</v>
+        <v>0.43399998545646667</v>
       </c>
       <c r="N73">
-        <v>.4560000002384186</v>
+        <v>0.45600000023841858</v>
       </c>
       <c r="O73">
         <v>26924</v>
@@ -4878,13 +4882,13 @@
         <v>1</v>
       </c>
       <c r="R73">
-        <v>.45730000734329224</v>
+        <v>0.45730000734329224</v>
       </c>
       <c r="T73">
-        <v>-.022949345409870148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.2949345409870148E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -4907,25 +4911,25 @@
         <v>43515</v>
       </c>
       <c r="H74">
-        <v>.4366599917411804</v>
+        <v>0.43665999174118042</v>
       </c>
       <c r="I74">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="J74">
-        <v>.4487999975681305</v>
+        <v>0.44879999756813049</v>
       </c>
       <c r="K74">
         <v>21020</v>
       </c>
       <c r="L74">
-        <v>.04372090846300125</v>
+        <v>4.3720908463001251E-2</v>
       </c>
       <c r="M74">
-        <v>.4339999854564667</v>
+        <v>0.43399998545646667</v>
       </c>
       <c r="N74">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="O74">
         <v>26924</v>
@@ -4937,13 +4941,13 @@
         <v>1</v>
       </c>
       <c r="R74">
-        <v>.44290000200271606</v>
+        <v>0.44290000200271606</v>
       </c>
       <c r="T74">
-        <v>.04372090846300125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.3720908463001251E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -4966,25 +4970,25 @@
         <v>43516</v>
       </c>
       <c r="H75">
-        <v>.41999998688697815</v>
+        <v>0.41999998688697815</v>
       </c>
       <c r="I75">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="J75">
-        <v>.41999998688697815</v>
+        <v>0.41999998688697815</v>
       </c>
       <c r="K75">
         <v>11563</v>
       </c>
       <c r="L75">
-        <v>-.06417115032672882</v>
+        <v>-6.4171150326728821E-2</v>
       </c>
       <c r="M75">
-        <v>.42399999499320984</v>
+        <v>0.42399999499320984</v>
       </c>
       <c r="N75">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="O75">
         <v>26924</v>
@@ -4996,13 +5000,13 @@
         <v>1</v>
       </c>
       <c r="R75">
-        <v>.4320000112056732</v>
+        <v>0.43200001120567322</v>
       </c>
       <c r="T75">
-        <v>-.06417115032672882</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-6.4171150326728821E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -5025,25 +5029,25 @@
         <v>43517</v>
       </c>
       <c r="H76">
-        <v>.4090000092983246</v>
+        <v>0.40900000929832458</v>
       </c>
       <c r="I76">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="J76">
-        <v>.4090000092983246</v>
+        <v>0.40900000929832458</v>
       </c>
       <c r="K76">
         <v>11308</v>
       </c>
       <c r="L76">
-        <v>-.02619042433798313</v>
+        <v>-2.6190424337983131E-2</v>
       </c>
       <c r="M76">
-        <v>.4090000092983246</v>
+        <v>0.40900000929832458</v>
       </c>
       <c r="N76">
-        <v>.4560000002384186</v>
+        <v>0.45600000023841858</v>
       </c>
       <c r="O76">
         <v>26924</v>
@@ -5055,13 +5059,13 @@
         <v>1</v>
       </c>
       <c r="R76">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="T76">
-        <v>-.02619042433798313</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.6190424337983131E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -5084,25 +5088,25 @@
         <v>43518</v>
       </c>
       <c r="H77">
-        <v>.4101000130176544</v>
+        <v>0.41010001301765442</v>
       </c>
       <c r="I77">
-        <v>.45989999175071716</v>
+        <v>0.45989999175071716</v>
       </c>
       <c r="J77">
-        <v>.4535999894142151</v>
+        <v>0.45359998941421509</v>
       </c>
       <c r="K77">
         <v>75899</v>
       </c>
       <c r="L77">
-        <v>.10904640704393387</v>
+        <v>0.10904640704393387</v>
       </c>
       <c r="M77">
-        <v>.4320000112056732</v>
+        <v>0.43200001120567322</v>
       </c>
       <c r="N77">
-        <v>.4560000002384186</v>
+        <v>0.45600000023841858</v>
       </c>
       <c r="O77">
         <v>26924</v>
@@ -5114,13 +5118,13 @@
         <v>1</v>
       </c>
       <c r="R77">
-        <v>.4101000130176544</v>
+        <v>0.41010001301765442</v>
       </c>
       <c r="T77">
-        <v>.10904640704393387</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.10904640704393387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -5143,25 +5147,25 @@
         <v>43521</v>
       </c>
       <c r="H78">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="I78">
-        <v>.49000000953674316</v>
+        <v>0.49000000953674316</v>
       </c>
       <c r="J78">
-        <v>.45010000467300415</v>
+        <v>0.45010000467300415</v>
       </c>
       <c r="K78">
         <v>75963</v>
       </c>
       <c r="L78">
-        <v>-.007716015912592411</v>
+        <v>-7.716015912592411E-3</v>
       </c>
       <c r="M78">
-        <v>.44999998807907104</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="N78">
-        <v>.46470001339912415</v>
+        <v>0.46470001339912415</v>
       </c>
       <c r="O78">
         <v>26924</v>
@@ -5173,13 +5177,13 @@
         <v>1</v>
       </c>
       <c r="R78">
-        <v>.4740000069141388</v>
+        <v>0.47400000691413879</v>
       </c>
       <c r="T78">
-        <v>-.007716015912592411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-7.716015912592411E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -5202,25 +5206,25 @@
         <v>43522</v>
       </c>
       <c r="H79">
-        <v>.430400013923645</v>
+        <v>0.43040001392364502</v>
       </c>
       <c r="I79">
-        <v>.47999998927116394</v>
+        <v>0.47999998927116394</v>
       </c>
       <c r="J79">
-        <v>.430400013923645</v>
+        <v>0.43040001392364502</v>
       </c>
       <c r="K79">
         <v>24276</v>
       </c>
       <c r="L79">
-        <v>-.043768029659986496</v>
+        <v>-4.3768029659986496E-2</v>
       </c>
       <c r="M79">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="N79">
-        <v>.44339999556541443</v>
+        <v>0.44339999556541443</v>
       </c>
       <c r="O79">
         <v>26924</v>
@@ -5232,13 +5236,13 @@
         <v>1</v>
       </c>
       <c r="R79">
-        <v>.4699999988079071</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="T79">
-        <v>-.043768029659986496</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-4.3768029659986496E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -5261,25 +5265,25 @@
         <v>43523</v>
       </c>
       <c r="H80">
-        <v>.4300999939441681</v>
+        <v>0.43009999394416809</v>
       </c>
       <c r="I80">
-        <v>.4699000120162964</v>
+        <v>0.46990001201629639</v>
       </c>
       <c r="J80">
-        <v>.4339999854564667</v>
+        <v>0.43399998545646667</v>
       </c>
       <c r="K80">
         <v>1785</v>
       </c>
       <c r="L80">
-        <v>.008364246226847172</v>
+        <v>8.3642462268471718E-3</v>
       </c>
       <c r="M80">
-        <v>.4339999854564667</v>
+        <v>0.43399998545646667</v>
       </c>
       <c r="N80">
-        <v>.46000000834465027</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="O80">
         <v>26924</v>
@@ -5291,13 +5295,13 @@
         <v>1</v>
       </c>
       <c r="R80">
-        <v>.4496000111103058</v>
+        <v>0.44960001111030579</v>
       </c>
       <c r="T80">
-        <v>.008364246226847172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.3642462268471718E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -5320,25 +5324,25 @@
         <v>43524</v>
       </c>
       <c r="H81">
-        <v>.4399000108242035</v>
+        <v>0.43990001082420349</v>
       </c>
       <c r="I81">
-        <v>.4499000012874603</v>
+        <v>0.44990000128746033</v>
       </c>
       <c r="J81">
-        <v>.4499000012874603</v>
+        <v>0.44990000128746033</v>
       </c>
       <c r="K81">
         <v>7817</v>
       </c>
       <c r="L81">
-        <v>.03663598373532295</v>
+        <v>3.6635983735322952E-2</v>
       </c>
       <c r="M81">
-        <v>.4300000071525574</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="N81">
-        <v>.4399999976158142</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="O81">
         <v>26924</v>
@@ -5350,13 +5354,13 @@
         <v>1</v>
       </c>
       <c r="R81">
-        <v>.44020000100135803</v>
+        <v>0.44020000100135803</v>
       </c>
       <c r="T81">
-        <v>.03663598373532295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.6635983735322952E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -5385,16 +5389,16 @@
         <v>52.099998474121094</v>
       </c>
       <c r="J82">
-        <v>51.7400016784668</v>
+        <v>51.740001678466797</v>
       </c>
       <c r="K82">
         <v>208765</v>
       </c>
       <c r="L82">
-        <v>.012920904904603958</v>
+        <v>1.2920904904603958E-2</v>
       </c>
       <c r="M82">
-        <v>51.7400016784668</v>
+        <v>51.740001678466797</v>
       </c>
       <c r="N82">
         <v>51.790000915527344</v>
@@ -5409,16 +5413,16 @@
         <v>1</v>
       </c>
       <c r="R82">
-        <v>50.36000061035156</v>
+        <v>50.360000610351563</v>
       </c>
       <c r="S82">
         <v>3309</v>
       </c>
       <c r="T82">
-        <v>.012920904904603958</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2920904904603958E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -5447,16 +5451,16 @@
         <v>52.279998779296875</v>
       </c>
       <c r="J83">
-        <v>50.45000076293945</v>
+        <v>50.450000762939453</v>
       </c>
       <c r="K83">
         <v>174582</v>
       </c>
       <c r="L83">
-        <v>-.024932371452450752</v>
+        <v>-2.4932371452450752E-2</v>
       </c>
       <c r="M83">
-        <v>50.45000076293945</v>
+        <v>50.450000762939453</v>
       </c>
       <c r="N83">
         <v>50.459999084472656</v>
@@ -5477,10 +5481,10 @@
         <v>2315</v>
       </c>
       <c r="T83">
-        <v>-.024932371452450752</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.4932371452450752E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -5506,22 +5510,22 @@
         <v>48.220001220703125</v>
       </c>
       <c r="I84">
-        <v>52.38999938964844</v>
+        <v>52.389999389648438</v>
       </c>
       <c r="J84">
-        <v>51.7400016784668</v>
+        <v>51.740001678466797</v>
       </c>
       <c r="K84">
         <v>144079</v>
       </c>
       <c r="L84">
-        <v>.025569889694452286</v>
+        <v>2.5569889694452286E-2</v>
       </c>
       <c r="M84">
-        <v>51.68000030517578</v>
+        <v>51.680000305175781</v>
       </c>
       <c r="N84">
-        <v>51.7400016784668</v>
+        <v>51.740001678466797</v>
       </c>
       <c r="O84">
         <v>30992</v>
@@ -5539,10 +5543,10 @@
         <v>1936</v>
       </c>
       <c r="T84">
-        <v>.025569889694452286</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.5569889694452286E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -5565,25 +5569,25 @@
         <v>43472</v>
       </c>
       <c r="H85">
-        <v>51.61000061035156</v>
+        <v>51.610000610351563</v>
       </c>
       <c r="I85">
-        <v>52.54999923706055</v>
+        <v>52.549999237060547</v>
       </c>
       <c r="J85">
-        <v>52.40999984741211</v>
+        <v>52.409999847412109</v>
       </c>
       <c r="K85">
         <v>235125</v>
       </c>
       <c r="L85">
-        <v>.012949326075613499</v>
+        <v>1.2949326075613499E-2</v>
       </c>
       <c r="M85">
-        <v>52.36000061035156</v>
+        <v>52.360000610351563</v>
       </c>
       <c r="N85">
-        <v>52.40999984741211</v>
+        <v>52.409999847412109</v>
       </c>
       <c r="O85">
         <v>30992</v>
@@ -5595,16 +5599,16 @@
         <v>1</v>
       </c>
       <c r="R85">
-        <v>51.61000061035156</v>
+        <v>51.610000610351563</v>
       </c>
       <c r="S85">
         <v>3014</v>
       </c>
       <c r="T85">
-        <v>.012949326075613499</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2949326075613499E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -5627,25 +5631,25 @@
         <v>43473</v>
       </c>
       <c r="H86">
-        <v>52.04999923706055</v>
+        <v>52.049999237060547</v>
       </c>
       <c r="I86">
-        <v>53.33250045776367</v>
+        <v>53.332500457763672</v>
       </c>
       <c r="J86">
-        <v>52.52000045776367</v>
+        <v>52.520000457763672</v>
       </c>
       <c r="K86">
         <v>148600</v>
       </c>
       <c r="L86">
-        <v>.002098847646266222</v>
+        <v>2.098847646266222E-3</v>
       </c>
       <c r="M86">
         <v>52.470001220703125</v>
       </c>
       <c r="N86">
-        <v>52.52000045776367</v>
+        <v>52.520000457763672</v>
       </c>
       <c r="O86">
         <v>30992</v>
@@ -5657,16 +5661,16 @@
         <v>1</v>
       </c>
       <c r="R86">
-        <v>52.59000015258789</v>
+        <v>52.590000152587891</v>
       </c>
       <c r="S86">
         <v>2361</v>
       </c>
       <c r="T86">
-        <v>.002098847646266222</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.098847646266222E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -5689,10 +5693,10 @@
         <v>43474</v>
       </c>
       <c r="H87">
-        <v>52.40999984741211</v>
+        <v>52.409999847412109</v>
       </c>
       <c r="I87">
-        <v>53.97999954223633</v>
+        <v>53.979999542236328</v>
       </c>
       <c r="J87">
         <v>53.25</v>
@@ -5701,7 +5705,7 @@
         <v>110562</v>
       </c>
       <c r="L87">
-        <v>.013899457640945911</v>
+        <v>1.3899457640945911E-2</v>
       </c>
       <c r="M87">
         <v>53.25</v>
@@ -5725,10 +5729,10 @@
         <v>1602</v>
       </c>
       <c r="T87">
-        <v>.013899457640945911</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.3899457640945911E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -5754,22 +5758,22 @@
         <v>53</v>
       </c>
       <c r="I88">
-        <v>54.02000045776367</v>
+        <v>54.020000457763672</v>
       </c>
       <c r="J88">
-        <v>53.97999954223633</v>
+        <v>53.979999542236328</v>
       </c>
       <c r="K88">
         <v>99515</v>
       </c>
       <c r="L88">
-        <v>.013708911836147308</v>
+        <v>1.3708911836147308E-2</v>
       </c>
       <c r="M88">
         <v>53.970001220703125</v>
       </c>
       <c r="N88">
-        <v>54.02000045776367</v>
+        <v>54.020000457763672</v>
       </c>
       <c r="O88">
         <v>30992</v>
@@ -5787,10 +5791,10 @@
         <v>1604</v>
       </c>
       <c r="T88">
-        <v>.013708911836147308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.3708911836147308E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -5813,7 +5817,7 @@
         <v>43476</v>
       </c>
       <c r="H89">
-        <v>53.54999923706055</v>
+        <v>53.549999237060547</v>
       </c>
       <c r="I89">
         <v>54.439998626708984</v>
@@ -5825,13 +5829,13 @@
         <v>158109</v>
       </c>
       <c r="L89">
-        <v>.007780696265399456</v>
+        <v>7.780696265399456E-3</v>
       </c>
       <c r="M89">
         <v>54.369998931884766</v>
       </c>
       <c r="N89">
-        <v>54.41999816894531</v>
+        <v>54.419998168945313</v>
       </c>
       <c r="O89">
         <v>30992</v>
@@ -5843,16 +5847,16 @@
         <v>1</v>
       </c>
       <c r="R89">
-        <v>53.63999938964844</v>
+        <v>53.639999389648438</v>
       </c>
       <c r="S89">
         <v>2218</v>
       </c>
       <c r="T89">
-        <v>.007780696265399456</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+        <v>7.780696265399456E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -5875,25 +5879,25 @@
         <v>43479</v>
       </c>
       <c r="H90">
-        <v>53.52000045776367</v>
+        <v>53.520000457763672</v>
       </c>
       <c r="I90">
-        <v>54.54999923706055</v>
+        <v>54.549999237060547</v>
       </c>
       <c r="J90">
-        <v>53.81999969482422</v>
+        <v>53.819999694824219</v>
       </c>
       <c r="K90">
         <v>200797</v>
       </c>
       <c r="L90">
-        <v>-.010661798529326916</v>
+        <v>-1.0661798529326916E-2</v>
       </c>
       <c r="M90">
-        <v>53.77000045776367</v>
+        <v>53.770000457763672</v>
       </c>
       <c r="N90">
-        <v>53.81999969482422</v>
+        <v>53.819999694824219</v>
       </c>
       <c r="O90">
         <v>30992</v>
@@ -5911,10 +5915,10 @@
         <v>2535</v>
       </c>
       <c r="T90">
-        <v>-.010661798529326916</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.0661798529326916E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -5949,13 +5953,13 @@
         <v>143554</v>
       </c>
       <c r="L91">
-        <v>-.0024154786951839924</v>
+        <v>-2.4154786951839924E-3</v>
       </c>
       <c r="M91">
         <v>53.689998626708984</v>
       </c>
       <c r="N91">
-        <v>53.72999954223633</v>
+        <v>53.729999542236328</v>
       </c>
       <c r="O91">
         <v>30992</v>
@@ -5973,10 +5977,10 @@
         <v>2350</v>
       </c>
       <c r="T91">
-        <v>-.0024154786951839924</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.4154786951839924E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -6005,19 +6009,19 @@
         <v>55.209999084472656</v>
       </c>
       <c r="J92">
-        <v>54.84000015258789</v>
+        <v>54.840000152587891</v>
       </c>
       <c r="K92">
         <v>267664</v>
       </c>
       <c r="L92">
-        <v>.021419288590550423</v>
+        <v>2.1419288590550423E-2</v>
       </c>
       <c r="M92">
-        <v>54.84000015258789</v>
+        <v>54.840000152587891</v>
       </c>
       <c r="N92">
-        <v>54.88999938964844</v>
+        <v>54.889999389648438</v>
       </c>
       <c r="O92">
         <v>30992</v>
@@ -6029,16 +6033,16 @@
         <v>1</v>
       </c>
       <c r="R92">
-        <v>54.04999923706055</v>
+        <v>54.049999237060547</v>
       </c>
       <c r="S92">
         <v>4094</v>
       </c>
       <c r="T92">
-        <v>.021419288590550423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.1419288590550423E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -6061,25 +6065,25 @@
         <v>43482</v>
       </c>
       <c r="H93">
-        <v>49.29999923706055</v>
+        <v>49.299999237060547</v>
       </c>
       <c r="I93">
         <v>53.790000915527344</v>
       </c>
       <c r="J93">
-        <v>52.58000183105469</v>
+        <v>52.580001831054688</v>
       </c>
       <c r="K93">
         <v>925633</v>
       </c>
       <c r="L93">
-        <v>-.04121076315641403</v>
+        <v>-4.1210763156414032E-2</v>
       </c>
       <c r="M93">
-        <v>52.58000183105469</v>
+        <v>52.580001831054688</v>
       </c>
       <c r="N93">
-        <v>52.59000015258789</v>
+        <v>52.590000152587891</v>
       </c>
       <c r="O93">
         <v>30992</v>
@@ -6097,10 +6101,10 @@
         <v>9242</v>
       </c>
       <c r="T93">
-        <v>-.04121076315641403</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-4.1210763156414032E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -6126,22 +6130,22 @@
         <v>52.529998779296875</v>
       </c>
       <c r="I94">
-        <v>54.7400016784668</v>
+        <v>54.740001678466797</v>
       </c>
       <c r="J94">
-        <v>54.56999969482422</v>
+        <v>54.569999694824219</v>
       </c>
       <c r="K94">
         <v>229744</v>
       </c>
       <c r="L94">
-        <v>.03784704953432083</v>
+        <v>3.7847049534320831E-2</v>
       </c>
       <c r="M94">
-        <v>54.56999969482422</v>
+        <v>54.569999694824219</v>
       </c>
       <c r="N94">
-        <v>54.58000183105469</v>
+        <v>54.580001831054688</v>
       </c>
       <c r="O94">
         <v>30992</v>
@@ -6159,10 +6163,10 @@
         <v>3124</v>
       </c>
       <c r="T94">
-        <v>.03784704953432083</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.7847049534320831E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -6185,10 +6189,10 @@
         <v>43487</v>
       </c>
       <c r="H95">
-        <v>53.2400016784668</v>
+        <v>53.240001678466797</v>
       </c>
       <c r="I95">
-        <v>55.09000015258789</v>
+        <v>55.090000152587891</v>
       </c>
       <c r="J95">
         <v>53.349998474121094</v>
@@ -6197,13 +6201,13 @@
         <v>220118</v>
       </c>
       <c r="L95">
-        <v>-.022356629371643066</v>
+        <v>-2.2356629371643066E-2</v>
       </c>
       <c r="M95">
         <v>53.349998474121094</v>
       </c>
       <c r="N95">
-        <v>53.36000061035156</v>
+        <v>53.360000610351563</v>
       </c>
       <c r="O95">
         <v>30992</v>
@@ -6215,16 +6219,16 @@
         <v>1</v>
       </c>
       <c r="R95">
-        <v>54.22999954223633</v>
+        <v>54.229999542236328</v>
       </c>
       <c r="S95">
         <v>3396</v>
       </c>
       <c r="T95">
-        <v>-.022356629371643066</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.2356629371643066E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -6250,19 +6254,19 @@
         <v>52.529998779296875</v>
       </c>
       <c r="I96">
-        <v>54.13999938964844</v>
+        <v>54.139999389648438</v>
       </c>
       <c r="J96">
-        <v>52.70000076293945</v>
+        <v>52.700000762939453</v>
       </c>
       <c r="K96">
         <v>143779</v>
       </c>
       <c r="L96">
-        <v>-.012183650396764278</v>
+        <v>-1.2183650396764278E-2</v>
       </c>
       <c r="M96">
-        <v>52.70000076293945</v>
+        <v>52.700000762939453</v>
       </c>
       <c r="N96">
         <v>52.75</v>
@@ -6283,10 +6287,10 @@
         <v>2098</v>
       </c>
       <c r="T96">
-        <v>-.012183650396764278</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.2183650396764278E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -6309,7 +6313,7 @@
         <v>43489</v>
       </c>
       <c r="H97">
-        <v>52.84000015258789</v>
+        <v>52.840000152587891</v>
       </c>
       <c r="I97">
         <v>54.459999084472656</v>
@@ -6321,10 +6325,10 @@
         <v>152335</v>
       </c>
       <c r="L97">
-        <v>.026565421372652054</v>
+        <v>2.6565421372652054E-2</v>
       </c>
       <c r="M97">
-        <v>54.09000015258789</v>
+        <v>54.090000152587891</v>
       </c>
       <c r="N97">
         <v>54.099998474121094</v>
@@ -6339,16 +6343,16 @@
         <v>1</v>
       </c>
       <c r="R97">
-        <v>52.84000015258789</v>
+        <v>52.840000152587891</v>
       </c>
       <c r="S97">
         <v>2100</v>
       </c>
       <c r="T97">
-        <v>.026565421372652054</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.6565421372652054E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -6374,7 +6378,7 @@
         <v>54.310001373291016</v>
       </c>
       <c r="I98">
-        <v>55.18000030517578</v>
+        <v>55.180000305175781</v>
       </c>
       <c r="J98">
         <v>54.689998626708984</v>
@@ -6383,13 +6387,13 @@
         <v>158587</v>
       </c>
       <c r="L98">
-        <v>.010905733332037926</v>
+        <v>1.0905733332037926E-2</v>
       </c>
       <c r="M98">
-        <v>54.63999938964844</v>
+        <v>54.639999389648438</v>
       </c>
       <c r="N98">
-        <v>54.68000030517578</v>
+        <v>54.680000305175781</v>
       </c>
       <c r="O98">
         <v>30992</v>
@@ -6407,10 +6411,10 @@
         <v>1769</v>
       </c>
       <c r="T98">
-        <v>.010905733332037926</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.0905733332037926E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -6436,19 +6440,19 @@
         <v>53.567501068115234</v>
       </c>
       <c r="I99">
-        <v>54.91999816894531</v>
+        <v>54.919998168945313</v>
       </c>
       <c r="J99">
-        <v>53.9900016784668</v>
+        <v>53.990001678466797</v>
       </c>
       <c r="K99">
         <v>155832</v>
       </c>
       <c r="L99">
-        <v>-.012799359858036041</v>
+        <v>-1.2799359858036041E-2</v>
       </c>
       <c r="M99">
-        <v>53.95000076293945</v>
+        <v>53.950000762939453</v>
       </c>
       <c r="N99">
         <v>54</v>
@@ -6463,16 +6467,16 @@
         <v>1</v>
       </c>
       <c r="R99">
-        <v>53.84000015258789</v>
+        <v>53.840000152587891</v>
       </c>
       <c r="S99">
         <v>1921</v>
       </c>
       <c r="T99">
-        <v>-.012799359858036041</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.2799359858036041E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>22</v>
       </c>
@@ -6495,10 +6499,10 @@
         <v>43494</v>
       </c>
       <c r="H100">
-        <v>54.18000030517578</v>
+        <v>54.180000305175781</v>
       </c>
       <c r="I100">
-        <v>55.33000183105469</v>
+        <v>55.330001831054688</v>
       </c>
       <c r="J100">
         <v>54.869998931884766</v>
@@ -6507,7 +6511,7 @@
         <v>169784</v>
       </c>
       <c r="L100">
-        <v>.016299262642860413</v>
+        <v>1.6299262642860413E-2</v>
       </c>
       <c r="M100">
         <v>54.880001068115234</v>
@@ -6531,10 +6535,10 @@
         <v>2422</v>
       </c>
       <c r="T100">
-        <v>.016299262642860413</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.6299262642860413E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -6569,7 +6573,7 @@
         <v>160887</v>
       </c>
       <c r="L101">
-        <v>.011481703259050846</v>
+        <v>1.1481703259050846E-2</v>
       </c>
       <c r="M101">
         <v>55.5</v>
@@ -6587,16 +6591,16 @@
         <v>1</v>
       </c>
       <c r="R101">
-        <v>55.22999954223633</v>
+        <v>55.229999542236328</v>
       </c>
       <c r="S101">
         <v>2418</v>
       </c>
       <c r="T101">
-        <v>.011481703259050846</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.1481703259050846E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -6631,7 +6635,7 @@
         <v>282684</v>
       </c>
       <c r="L102">
-        <v>.011171151883900166</v>
+        <v>1.1171151883900166E-2</v>
       </c>
       <c r="M102">
         <v>56.119998931884766</v>
@@ -6649,16 +6653,16 @@
         <v>1</v>
       </c>
       <c r="R102">
-        <v>55.40999984741211</v>
+        <v>55.409999847412109</v>
       </c>
       <c r="S102">
         <v>2829</v>
       </c>
       <c r="T102">
-        <v>.011171151883900166</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.1171151883900166E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -6681,22 +6685,22 @@
         <v>43497</v>
       </c>
       <c r="H103">
-        <v>56.09000015258789</v>
+        <v>56.090000152587891</v>
       </c>
       <c r="I103">
         <v>56.970001220703125</v>
       </c>
       <c r="J103">
-        <v>56.91999816894531</v>
+        <v>56.919998168945313</v>
       </c>
       <c r="K103">
         <v>204646</v>
       </c>
       <c r="L103">
-        <v>.014255153946578503</v>
+        <v>1.4255153946578503E-2</v>
       </c>
       <c r="M103">
-        <v>56.91999816894531</v>
+        <v>56.919998168945313</v>
       </c>
       <c r="N103">
         <v>56.959999084472656</v>
@@ -6711,16 +6715,16 @@
         <v>1</v>
       </c>
       <c r="R103">
-        <v>56.38999938964844</v>
+        <v>56.389999389648438</v>
       </c>
       <c r="S103">
         <v>3523</v>
       </c>
       <c r="T103">
-        <v>.014255153946578503</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.4255153946578503E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -6743,25 +6747,25 @@
         <v>43500</v>
       </c>
       <c r="H104">
-        <v>56.59000015258789</v>
+        <v>56.590000152587891</v>
       </c>
       <c r="I104">
-        <v>57.61000061035156</v>
+        <v>57.610000610351563</v>
       </c>
       <c r="J104">
-        <v>57.22999954223633</v>
+        <v>57.229999542236328</v>
       </c>
       <c r="K104">
         <v>298365</v>
       </c>
       <c r="L104">
-        <v>.005446264520287514</v>
+        <v>5.4462645202875137E-3</v>
       </c>
       <c r="M104">
-        <v>57.16999816894531</v>
+        <v>57.169998168945313</v>
       </c>
       <c r="N104">
-        <v>57.22999954223633</v>
+        <v>57.229999542236328</v>
       </c>
       <c r="O104">
         <v>30914</v>
@@ -6773,16 +6777,16 @@
         <v>1</v>
       </c>
       <c r="R104">
-        <v>57.09000015258789</v>
+        <v>57.090000152587891</v>
       </c>
       <c r="S104">
         <v>4364</v>
       </c>
       <c r="T104">
-        <v>.005446264520287514</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5.4462645202875137E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -6805,25 +6809,25 @@
         <v>43501</v>
       </c>
       <c r="H105">
-        <v>56.52000045776367</v>
+        <v>56.520000457763672</v>
       </c>
       <c r="I105">
         <v>57.601200103759766</v>
       </c>
       <c r="J105">
-        <v>56.88999938964844</v>
+        <v>56.889999389648438</v>
       </c>
       <c r="K105">
         <v>230024</v>
       </c>
       <c r="L105">
-        <v>-.00594094255939126</v>
+        <v>-5.9409425593912601E-3</v>
       </c>
       <c r="M105">
         <v>56.849998474121094</v>
       </c>
       <c r="N105">
-        <v>56.88999938964844</v>
+        <v>56.889999389648438</v>
       </c>
       <c r="O105">
         <v>30914</v>
@@ -6841,10 +6845,10 @@
         <v>3866</v>
       </c>
       <c r="T105">
-        <v>-.00594094255939126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-5.9409425593912601E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -6867,25 +6871,25 @@
         <v>43502</v>
       </c>
       <c r="H106">
-        <v>56.83000183105469</v>
+        <v>56.830001831054688</v>
       </c>
       <c r="I106">
         <v>57.709999084472656</v>
       </c>
       <c r="J106">
-        <v>57.20000076293945</v>
+        <v>57.200000762939453</v>
       </c>
       <c r="K106">
         <v>157270</v>
       </c>
       <c r="L106">
-        <v>.005449136719107628</v>
+        <v>5.4491367191076279E-3</v>
       </c>
       <c r="M106">
-        <v>57.15999984741211</v>
+        <v>57.159999847412109</v>
       </c>
       <c r="N106">
-        <v>57.20000076293945</v>
+        <v>57.200000762939453</v>
       </c>
       <c r="O106">
         <v>30914</v>
@@ -6897,16 +6901,16 @@
         <v>1</v>
       </c>
       <c r="R106">
-        <v>56.83000183105469</v>
+        <v>56.830001831054688</v>
       </c>
       <c r="S106">
         <v>2304</v>
       </c>
       <c r="T106">
-        <v>.005449136719107628</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5.4491367191076279E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -6929,25 +6933,25 @@
         <v>43503</v>
       </c>
       <c r="H107">
-        <v>56.40999984741211</v>
+        <v>56.409999847412109</v>
       </c>
       <c r="I107">
-        <v>57.13999938964844</v>
+        <v>57.139999389648438</v>
       </c>
       <c r="J107">
-        <v>56.7599983215332</v>
+        <v>56.759998321533203</v>
       </c>
       <c r="K107">
         <v>173474</v>
       </c>
       <c r="L107">
-        <v>-.007692350074648857</v>
+        <v>-7.6923500746488571E-3</v>
       </c>
       <c r="M107">
-        <v>56.7599983215332</v>
+        <v>56.759998321533203</v>
       </c>
       <c r="N107">
-        <v>56.79999923706055</v>
+        <v>56.799999237060547</v>
       </c>
       <c r="O107">
         <v>30914</v>
@@ -6965,10 +6969,10 @@
         <v>2940</v>
       </c>
       <c r="T107">
-        <v>-.007692350074648857</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-7.6923500746488571E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -7003,7 +7007,7 @@
         <v>168648</v>
       </c>
       <c r="L108">
-        <v>-.010042278096079826</v>
+        <v>-1.0042278096079826E-2</v>
       </c>
       <c r="M108">
         <v>56.189998626708984</v>
@@ -7021,16 +7025,16 @@
         <v>1</v>
       </c>
       <c r="R108">
-        <v>56.38999938964844</v>
+        <v>56.389999389648438</v>
       </c>
       <c r="S108">
         <v>3614</v>
       </c>
       <c r="T108">
-        <v>-.010042278096079826</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.0042278096079826E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -7053,22 +7057,22 @@
         <v>43507</v>
       </c>
       <c r="H109">
-        <v>55.31999969482422</v>
+        <v>55.319999694824219</v>
       </c>
       <c r="I109">
         <v>56.400001525878906</v>
       </c>
       <c r="J109">
-        <v>56.15999984741211</v>
+        <v>56.159999847412109</v>
       </c>
       <c r="K109">
         <v>147600</v>
       </c>
       <c r="L109">
-        <v>-.0005338811315596104</v>
+        <v>-5.3388113155961037E-4</v>
       </c>
       <c r="M109">
-        <v>56.15999984741211</v>
+        <v>56.159999847412109</v>
       </c>
       <c r="N109">
         <v>56.220001220703125</v>
@@ -7089,10 +7093,10 @@
         <v>2445</v>
       </c>
       <c r="T109">
-        <v>-.0005338811315596104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-5.3388113155961037E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>22</v>
       </c>
@@ -7115,22 +7119,22 @@
         <v>43508</v>
       </c>
       <c r="H110">
-        <v>56.06999969482422</v>
+        <v>56.069999694824219</v>
       </c>
       <c r="I110">
-        <v>57.31999969482422</v>
+        <v>57.319999694824219</v>
       </c>
       <c r="J110">
-        <v>57.09000015258789</v>
+        <v>57.090000152587891</v>
       </c>
       <c r="K110">
         <v>128357</v>
       </c>
       <c r="L110">
-        <v>.01655983366072178</v>
+        <v>1.6559833660721779E-2</v>
       </c>
       <c r="M110">
-        <v>57.08000183105469</v>
+        <v>57.080001831054688</v>
       </c>
       <c r="N110">
         <v>57.119998931884766</v>
@@ -7145,16 +7149,16 @@
         <v>1</v>
       </c>
       <c r="R110">
-        <v>56.40999984741211</v>
+        <v>56.409999847412109</v>
       </c>
       <c r="S110">
         <v>2668</v>
       </c>
       <c r="T110">
-        <v>.01655983366072178</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.6559833660721779E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -7177,25 +7181,25 @@
         <v>43509</v>
       </c>
       <c r="H111">
-        <v>57.31999969482422</v>
+        <v>57.319999694824219</v>
       </c>
       <c r="I111">
         <v>58.119998931884766</v>
       </c>
       <c r="J111">
-        <v>57.81999969482422</v>
+        <v>57.819999694824219</v>
       </c>
       <c r="K111">
         <v>169207</v>
       </c>
       <c r="L111">
-        <v>.012786819599568844</v>
+        <v>1.2786819599568844E-2</v>
       </c>
       <c r="M111">
-        <v>57.83000183105469</v>
+        <v>57.830001831054688</v>
       </c>
       <c r="N111">
-        <v>57.86000061035156</v>
+        <v>57.860000610351563</v>
       </c>
       <c r="O111">
         <v>30914</v>
@@ -7207,16 +7211,16 @@
         <v>1</v>
       </c>
       <c r="R111">
-        <v>57.41999816894531</v>
+        <v>57.419998168945313</v>
       </c>
       <c r="S111">
         <v>2330</v>
       </c>
       <c r="T111">
-        <v>.012786819599568844</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2786819599568844E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -7251,13 +7255,13 @@
         <v>197289</v>
       </c>
       <c r="L112">
-        <v>.0010377269936725497</v>
+        <v>1.0377269936725497E-3</v>
       </c>
       <c r="M112">
         <v>57.880001068115234</v>
       </c>
       <c r="N112">
-        <v>57.88999938964844</v>
+        <v>57.889999389648438</v>
       </c>
       <c r="O112">
         <v>30914</v>
@@ -7275,10 +7279,10 @@
         <v>3604</v>
       </c>
       <c r="T112">
-        <v>.0010377269936725497</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.0377269936725497E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -7304,16 +7308,16 @@
         <v>57.75</v>
       </c>
       <c r="I113">
-        <v>58.83000183105469</v>
+        <v>58.830001831054688</v>
       </c>
       <c r="J113">
-        <v>58.70000076293945</v>
+        <v>58.700000762939453</v>
       </c>
       <c r="K113">
         <v>384190</v>
       </c>
       <c r="L113">
-        <v>.014167237095534801</v>
+        <v>1.4167237095534801E-2</v>
       </c>
       <c r="M113">
         <v>58.709999084472656</v>
@@ -7331,16 +7335,16 @@
         <v>1</v>
       </c>
       <c r="R113">
-        <v>58.13999938964844</v>
+        <v>58.139999389648438</v>
       </c>
       <c r="S113">
         <v>3068</v>
       </c>
       <c r="T113">
-        <v>.014167237095534801</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.4167237095534801E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -7363,25 +7367,25 @@
         <v>43515</v>
       </c>
       <c r="H114">
-        <v>58.08000183105469</v>
+        <v>58.080001831054688</v>
       </c>
       <c r="I114">
-        <v>59.20000076293945</v>
+        <v>59.200000762939453</v>
       </c>
       <c r="J114">
-        <v>59.04999923706055</v>
+        <v>59.049999237060547</v>
       </c>
       <c r="K114">
         <v>132609</v>
       </c>
       <c r="L114">
-        <v>.0059624952264130116</v>
+        <v>5.9624952264130116E-3</v>
       </c>
       <c r="M114">
         <v>59.029998779296875</v>
       </c>
       <c r="N114">
-        <v>59.04999923706055</v>
+        <v>59.049999237060547</v>
       </c>
       <c r="O114">
         <v>30914</v>
@@ -7393,16 +7397,16 @@
         <v>1</v>
       </c>
       <c r="R114">
-        <v>58.68000030517578</v>
+        <v>58.680000305175781</v>
       </c>
       <c r="S114">
         <v>1971</v>
       </c>
       <c r="T114">
-        <v>.0059624952264130116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5.9624952264130116E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -7425,7 +7429,7 @@
         <v>43516</v>
       </c>
       <c r="H115">
-        <v>58.86000061035156</v>
+        <v>58.860000610351563</v>
       </c>
       <c r="I115">
         <v>59.970001220703125</v>
@@ -7437,7 +7441,7 @@
         <v>160135</v>
       </c>
       <c r="L115">
-        <v>.014055916108191013</v>
+        <v>1.4055916108191013E-2</v>
       </c>
       <c r="M115">
         <v>59.849998474121094</v>
@@ -7455,16 +7459,16 @@
         <v>1</v>
       </c>
       <c r="R115">
-        <v>58.86000061035156</v>
+        <v>58.860000610351563</v>
       </c>
       <c r="S115">
         <v>1953</v>
       </c>
       <c r="T115">
-        <v>.014055916108191013</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.4055916108191013E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -7490,7 +7494,7 @@
         <v>59.529998779296875</v>
       </c>
       <c r="I116">
-        <v>60.2400016784668</v>
+        <v>60.240001678466797</v>
       </c>
       <c r="J116">
         <v>60.150001525878906</v>
@@ -7499,7 +7503,7 @@
         <v>99870</v>
       </c>
       <c r="L116">
-        <v>.00450902571901679</v>
+        <v>4.5090257190167904E-3</v>
       </c>
       <c r="M116">
         <v>60.119998931884766</v>
@@ -7523,10 +7527,10 @@
         <v>1709</v>
       </c>
       <c r="T116">
-        <v>.00450902571901679</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.5090257190167904E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -7549,25 +7553,25 @@
         <v>43518</v>
       </c>
       <c r="H117">
-        <v>59.81999969482422</v>
+        <v>59.819999694824219</v>
       </c>
       <c r="I117">
-        <v>60.86000061035156</v>
+        <v>60.860000610351563</v>
       </c>
       <c r="J117">
-        <v>60.72999954223633</v>
+        <v>60.729999542236328</v>
       </c>
       <c r="K117">
         <v>107734</v>
       </c>
       <c r="L117">
-        <v>.009642527438700199</v>
+        <v>9.6425274387001991E-3</v>
       </c>
       <c r="M117">
         <v>60.709999084472656</v>
       </c>
       <c r="N117">
-        <v>60.7599983215332</v>
+        <v>60.759998321533203</v>
       </c>
       <c r="O117">
         <v>30914</v>
@@ -7579,16 +7583,16 @@
         <v>1</v>
       </c>
       <c r="R117">
-        <v>60.2599983215332</v>
+        <v>60.259998321533203</v>
       </c>
       <c r="S117">
         <v>1880</v>
       </c>
       <c r="T117">
-        <v>.009642527438700199</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9.6425274387001991E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -7611,10 +7615,10 @@
         <v>43521</v>
       </c>
       <c r="H118">
-        <v>60.84000015258789</v>
+        <v>60.840000152587891</v>
       </c>
       <c r="I118">
-        <v>61.91999816894531</v>
+        <v>61.919998168945313</v>
       </c>
       <c r="J118">
         <v>61.25</v>
@@ -7623,10 +7627,10 @@
         <v>149984</v>
       </c>
       <c r="L118">
-        <v>.008562496863305569</v>
+        <v>8.5624968633055687E-3</v>
       </c>
       <c r="M118">
-        <v>61.2599983215332</v>
+        <v>61.259998321533203</v>
       </c>
       <c r="N118">
         <v>61.279998779296875</v>
@@ -7641,16 +7645,16 @@
         <v>1</v>
       </c>
       <c r="R118">
-        <v>60.84000015258789</v>
+        <v>60.840000152587891</v>
       </c>
       <c r="S118">
         <v>1822</v>
       </c>
       <c r="T118">
-        <v>.008562496863305569</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.5624968633055687E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -7676,7 +7680,7 @@
         <v>61.040000915527344</v>
       </c>
       <c r="I119">
-        <v>61.95000076293945</v>
+        <v>61.950000762939453</v>
       </c>
       <c r="J119">
         <v>61.709999084472656</v>
@@ -7685,7 +7689,7 @@
         <v>139393</v>
       </c>
       <c r="L119">
-        <v>.007510188966989517</v>
+        <v>7.5101889669895172E-3</v>
       </c>
       <c r="M119">
         <v>61.689998626708984</v>
@@ -7703,16 +7707,16 @@
         <v>1</v>
       </c>
       <c r="R119">
-        <v>61.2599983215332</v>
+        <v>61.259998321533203</v>
       </c>
       <c r="S119">
         <v>2264</v>
       </c>
       <c r="T119">
-        <v>.007510188966989517</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+        <v>7.5101889669895172E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -7735,25 +7739,25 @@
         <v>43523</v>
       </c>
       <c r="H120">
-        <v>59.4650993347168</v>
+        <v>59.465099334716797</v>
       </c>
       <c r="I120">
         <v>62.099998474121094</v>
       </c>
       <c r="J120">
-        <v>62.06999969482422</v>
+        <v>62.069999694824219</v>
       </c>
       <c r="K120">
         <v>143476</v>
       </c>
       <c r="L120">
-        <v>.005833748262375593</v>
+        <v>5.8337482623755932E-3</v>
       </c>
       <c r="M120">
-        <v>62.06999969482422</v>
+        <v>62.069999694824219</v>
       </c>
       <c r="N120">
-        <v>62.09000015258789</v>
+        <v>62.090000152587891</v>
       </c>
       <c r="O120">
         <v>30914</v>
@@ -7771,10 +7775,10 @@
         <v>2110</v>
       </c>
       <c r="T120">
-        <v>.005833748262375593</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5.8337482623755932E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -7797,25 +7801,25 @@
         <v>43524</v>
       </c>
       <c r="H121">
-        <v>61.35499954223633</v>
+        <v>61.354999542236328</v>
       </c>
       <c r="I121">
-        <v>62.0099983215332</v>
+        <v>62.009998321533203</v>
       </c>
       <c r="J121">
-        <v>61.7599983215332</v>
+        <v>61.759998321533203</v>
       </c>
       <c r="K121">
         <v>122673</v>
       </c>
       <c r="L121">
-        <v>-.004994383547455072</v>
+        <v>-4.9943835474550724E-3</v>
       </c>
       <c r="M121">
-        <v>61.7599983215332</v>
+        <v>61.759998321533203</v>
       </c>
       <c r="N121">
-        <v>61.77000045776367</v>
+        <v>61.770000457763672</v>
       </c>
       <c r="O121">
         <v>30914</v>
@@ -7833,10 +7837,10 @@
         <v>1852</v>
       </c>
       <c r="T121">
-        <v>-.004994383547455072</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-4.9943835474550724E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -7871,10 +7875,10 @@
         <v>8472</v>
       </c>
       <c r="L122">
-        <v>.012887061573565006</v>
+        <v>1.2887061573565006E-2</v>
       </c>
       <c r="M122">
-        <v>8.569999694824219</v>
+        <v>8.5699996948242188</v>
       </c>
       <c r="N122">
         <v>8.630000114440918</v>
@@ -7889,16 +7893,16 @@
         <v>1</v>
       </c>
       <c r="R122">
-        <v>8.399999618530273</v>
+        <v>8.3999996185302734</v>
       </c>
       <c r="S122">
         <v>66</v>
       </c>
       <c r="T122">
-        <v>.012887061573565006</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2887061573565006E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -7960,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -7983,25 +7987,25 @@
         <v>43469</v>
       </c>
       <c r="H124">
-        <v>8.293700218200684</v>
+        <v>8.2937002182006836</v>
       </c>
       <c r="I124">
-        <v>8.824999809265137</v>
+        <v>8.8249998092651367</v>
       </c>
       <c r="J124">
-        <v>8.824999809265137</v>
+        <v>8.8249998092651367</v>
       </c>
       <c r="K124">
         <v>31590</v>
       </c>
       <c r="L124">
-        <v>.022595560178160667</v>
+        <v>2.2595560178160667E-2</v>
       </c>
       <c r="M124">
-        <v>8.789999961853027</v>
+        <v>8.7899999618530273</v>
       </c>
       <c r="N124">
-        <v>8.890000343322754</v>
+        <v>8.8900003433227539</v>
       </c>
       <c r="O124">
         <v>5949</v>
@@ -8013,16 +8017,16 @@
         <v>1</v>
       </c>
       <c r="R124">
-        <v>8.489999771118164</v>
+        <v>8.4899997711181641</v>
       </c>
       <c r="S124">
         <v>201</v>
       </c>
       <c r="T124">
-        <v>.022595560178160667</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.2595560178160667E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -8051,16 +8055,16 @@
         <v>8.880000114440918</v>
       </c>
       <c r="J125">
-        <v>8.649999618530273</v>
+        <v>8.6499996185302734</v>
       </c>
       <c r="K125">
         <v>10008</v>
       </c>
       <c r="L125">
-        <v>-.019830049946904182</v>
+        <v>-1.9830049946904182E-2</v>
       </c>
       <c r="M125">
-        <v>8.680000305175781</v>
+        <v>8.6800003051757813</v>
       </c>
       <c r="N125">
         <v>8.880000114440918</v>
@@ -8075,16 +8079,16 @@
         <v>1</v>
       </c>
       <c r="R125">
-        <v>8.710000038146973</v>
+        <v>8.7100000381469727</v>
       </c>
       <c r="S125">
         <v>74</v>
       </c>
       <c r="T125">
-        <v>-.019830049946904182</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.9830049946904182E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -8107,22 +8111,22 @@
         <v>43473</v>
       </c>
       <c r="H126">
-        <v>8.558300018310547</v>
+        <v>8.5583000183105469</v>
       </c>
       <c r="I126">
-        <v>8.9399995803833</v>
+        <v>8.9399995803833008</v>
       </c>
       <c r="J126">
-        <v>8.890000343322754</v>
+        <v>8.8900003433227539</v>
       </c>
       <c r="K126">
         <v>16152</v>
       </c>
       <c r="L126">
-        <v>.027745749801397324</v>
+        <v>2.7745749801397324E-2</v>
       </c>
       <c r="M126">
-        <v>8.890000343322754</v>
+        <v>8.8900003433227539</v>
       </c>
       <c r="N126">
         <v>9</v>
@@ -8137,16 +8141,16 @@
         <v>1</v>
       </c>
       <c r="R126">
-        <v>8.649999618530273</v>
+        <v>8.6499996185302734</v>
       </c>
       <c r="S126">
         <v>82</v>
       </c>
       <c r="T126">
-        <v>.027745749801397324</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.7745749801397324E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -8169,10 +8173,10 @@
         <v>43474</v>
       </c>
       <c r="H127">
-        <v>8.773300170898438</v>
+        <v>8.7733001708984375</v>
       </c>
       <c r="I127">
-        <v>9.053799629211426</v>
+        <v>9.0537996292114258</v>
       </c>
       <c r="J127">
         <v>9</v>
@@ -8181,13 +8185,13 @@
         <v>7317</v>
       </c>
       <c r="L127">
-        <v>.012373413890600204</v>
+        <v>1.2373413890600204E-2</v>
       </c>
       <c r="M127">
-        <v>8.8100004196167</v>
+        <v>8.8100004196166992</v>
       </c>
       <c r="N127">
-        <v>9.100000381469727</v>
+        <v>9.1000003814697266</v>
       </c>
       <c r="O127">
         <v>5949</v>
@@ -8199,16 +8203,16 @@
         <v>1</v>
       </c>
       <c r="R127">
-        <v>8.920000076293945</v>
+        <v>8.9200000762939453</v>
       </c>
       <c r="S127">
         <v>76</v>
       </c>
       <c r="T127">
-        <v>.012373413890600204</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2373413890600204E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -8231,25 +8235,25 @@
         <v>43475</v>
       </c>
       <c r="H128">
-        <v>8.8100004196167</v>
+        <v>8.8100004196166992</v>
       </c>
       <c r="I128">
-        <v>9.100000381469727</v>
+        <v>9.1000003814697266</v>
       </c>
       <c r="J128">
-        <v>8.899999618530273</v>
+        <v>8.8999996185302734</v>
       </c>
       <c r="K128">
         <v>8371</v>
       </c>
       <c r="L128">
-        <v>-.011111153289675713</v>
+        <v>-1.1111153289675713E-2</v>
       </c>
       <c r="M128">
-        <v>8.899999618530273</v>
+        <v>8.8999996185302734</v>
       </c>
       <c r="N128">
-        <v>9.100000381469727</v>
+        <v>9.1000003814697266</v>
       </c>
       <c r="O128">
         <v>5949</v>
@@ -8261,16 +8265,16 @@
         <v>1</v>
       </c>
       <c r="R128">
-        <v>8.899999618530273</v>
+        <v>8.8999996185302734</v>
       </c>
       <c r="S128">
         <v>72</v>
       </c>
       <c r="T128">
-        <v>-.011111153289675713</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.1111153289675713E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -8293,25 +8297,25 @@
         <v>43476</v>
       </c>
       <c r="H129">
-        <v>8.520000457763672</v>
+        <v>8.5200004577636719</v>
       </c>
       <c r="I129">
-        <v>8.899999618530273</v>
+        <v>8.8999996185302734</v>
       </c>
       <c r="J129">
-        <v>8.649999618530273</v>
+        <v>8.6499996185302734</v>
       </c>
       <c r="K129">
         <v>36205</v>
       </c>
       <c r="L129">
-        <v>-.028089888393878937</v>
+        <v>-2.8089888393878937E-2</v>
       </c>
       <c r="M129">
         <v>8.5</v>
       </c>
       <c r="N129">
-        <v>8.699999809265137</v>
+        <v>8.6999998092651367</v>
       </c>
       <c r="O129">
         <v>5949</v>
@@ -8323,16 +8327,16 @@
         <v>1</v>
       </c>
       <c r="R129">
-        <v>8.770000457763672</v>
+        <v>8.7700004577636719</v>
       </c>
       <c r="S129">
         <v>172</v>
       </c>
       <c r="T129">
-        <v>-.028089888393878937</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.8089888393878937E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -8358,22 +8362,22 @@
         <v>8.25</v>
       </c>
       <c r="I130">
-        <v>8.510000228881836</v>
+        <v>8.5100002288818359</v>
       </c>
       <c r="J130">
-        <v>8.329999923706055</v>
+        <v>8.3299999237060547</v>
       </c>
       <c r="K130">
         <v>5566</v>
       </c>
       <c r="L130">
-        <v>-.03699418529868126</v>
+        <v>-3.6994185298681259E-2</v>
       </c>
       <c r="M130">
         <v>8.25</v>
       </c>
       <c r="N130">
-        <v>8.359999656677246</v>
+        <v>8.3599996566772461</v>
       </c>
       <c r="O130">
         <v>5949</v>
@@ -8385,16 +8389,16 @@
         <v>1</v>
       </c>
       <c r="R130">
-        <v>8.510000228881836</v>
+        <v>8.5100002288818359</v>
       </c>
       <c r="S130">
         <v>60</v>
       </c>
       <c r="T130">
-        <v>-.03699418529868126</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-3.6994185298681259E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>23</v>
       </c>
@@ -8417,22 +8421,22 @@
         <v>43480</v>
       </c>
       <c r="H131">
-        <v>8.234999656677246</v>
+        <v>8.2349996566772461</v>
       </c>
       <c r="I131">
-        <v>8.489899635314941</v>
+        <v>8.4898996353149414</v>
       </c>
       <c r="J131">
-        <v>8.489899635314941</v>
+        <v>8.4898996353149414</v>
       </c>
       <c r="K131">
         <v>10768</v>
       </c>
       <c r="L131">
-        <v>.019195644184947014</v>
+        <v>1.9195644184947014E-2</v>
       </c>
       <c r="M131">
-        <v>8.350000381469727</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="N131">
         <v>8.5</v>
@@ -8453,10 +8457,10 @@
         <v>99</v>
       </c>
       <c r="T131">
-        <v>.019195644184947014</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.9195644184947014E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>23</v>
       </c>
@@ -8479,10 +8483,10 @@
         <v>43481</v>
       </c>
       <c r="H132">
-        <v>8.279999732971191</v>
+        <v>8.2799997329711914</v>
       </c>
       <c r="I132">
-        <v>8.679900169372559</v>
+        <v>8.6799001693725586</v>
       </c>
       <c r="J132">
         <v>8.5</v>
@@ -8491,13 +8495,13 @@
         <v>8808</v>
       </c>
       <c r="L132">
-        <v>.001189691829495132</v>
+        <v>1.189691829495132E-3</v>
       </c>
       <c r="M132">
         <v>8.5</v>
       </c>
       <c r="N132">
-        <v>8.720000267028809</v>
+        <v>8.7200002670288086</v>
       </c>
       <c r="O132">
         <v>5949</v>
@@ -8509,16 +8513,16 @@
         <v>1</v>
       </c>
       <c r="R132">
-        <v>8.4399995803833</v>
+        <v>8.4399995803833008</v>
       </c>
       <c r="S132">
         <v>135</v>
       </c>
       <c r="T132">
-        <v>.001189691829495132</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.189691829495132E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -8541,25 +8545,25 @@
         <v>43482</v>
       </c>
       <c r="H133">
-        <v>8.319999694824219</v>
+        <v>8.3199996948242188</v>
       </c>
       <c r="I133">
-        <v>8.678299903869629</v>
+        <v>8.6782999038696289</v>
       </c>
       <c r="J133">
-        <v>8.319999694824219</v>
+        <v>8.3199996948242188</v>
       </c>
       <c r="K133">
         <v>4393</v>
       </c>
       <c r="L133">
-        <v>-.021176505833864212</v>
+        <v>-2.1176505833864212E-2</v>
       </c>
       <c r="M133">
-        <v>8.319999694824219</v>
+        <v>8.3199996948242188</v>
       </c>
       <c r="N133">
-        <v>8.720000267028809</v>
+        <v>8.7200002670288086</v>
       </c>
       <c r="O133">
         <v>5949</v>
@@ -8577,10 +8581,10 @@
         <v>33</v>
       </c>
       <c r="T133">
-        <v>-.021176505833864212</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.1176505833864212E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>23</v>
       </c>
@@ -8603,10 +8607,10 @@
         <v>43483</v>
       </c>
       <c r="H134">
-        <v>8.260000228881836</v>
+        <v>8.2600002288818359</v>
       </c>
       <c r="I134">
-        <v>8.550000190734863</v>
+        <v>8.5500001907348633</v>
       </c>
       <c r="J134">
         <v>8.5</v>
@@ -8615,7 +8619,7 @@
         <v>9807</v>
       </c>
       <c r="L134">
-        <v>.021634653210639954</v>
+        <v>2.1634653210639954E-2</v>
       </c>
       <c r="M134">
         <v>8.5</v>
@@ -8633,16 +8637,16 @@
         <v>1</v>
       </c>
       <c r="R134">
-        <v>8.260000228881836</v>
+        <v>8.2600002288818359</v>
       </c>
       <c r="S134">
         <v>71</v>
       </c>
       <c r="T134">
-        <v>.021634653210639954</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.1634653210639954E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>23</v>
       </c>
@@ -8665,25 +8669,25 @@
         <v>43487</v>
       </c>
       <c r="H135">
-        <v>8.354499816894531</v>
+        <v>8.3544998168945313</v>
       </c>
       <c r="I135">
-        <v>8.6899995803833</v>
+        <v>8.6899995803833008</v>
       </c>
       <c r="J135">
-        <v>8.670000076293945</v>
+        <v>8.6700000762939453</v>
       </c>
       <c r="K135">
         <v>5120</v>
       </c>
       <c r="L135">
-        <v>.02000000886619091</v>
+        <v>2.000000886619091E-2</v>
       </c>
       <c r="M135">
-        <v>8.670000076293945</v>
+        <v>8.6700000762939453</v>
       </c>
       <c r="N135">
-        <v>8.720000267028809</v>
+        <v>8.7200002670288086</v>
       </c>
       <c r="O135">
         <v>5949</v>
@@ -8695,16 +8699,16 @@
         <v>1</v>
       </c>
       <c r="R135">
-        <v>8.40999984741211</v>
+        <v>8.4099998474121094</v>
       </c>
       <c r="S135">
         <v>82</v>
       </c>
       <c r="T135">
-        <v>.02000000886619091</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.000000886619091E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>23</v>
       </c>
@@ -8727,25 +8731,25 @@
         <v>43488</v>
       </c>
       <c r="H136">
-        <v>8.420000076293945</v>
+        <v>8.4200000762939453</v>
       </c>
       <c r="I136">
-        <v>8.669899940490723</v>
+        <v>8.6698999404907227</v>
       </c>
       <c r="J136">
-        <v>8.550000190734863</v>
+        <v>8.5500001907348633</v>
       </c>
       <c r="K136">
         <v>7586</v>
       </c>
       <c r="L136">
-        <v>-.013840816915035248</v>
+        <v>-1.3840816915035248E-2</v>
       </c>
       <c r="M136">
-        <v>8.550000190734863</v>
+        <v>8.5500001907348633</v>
       </c>
       <c r="N136">
-        <v>8.670000076293945</v>
+        <v>8.6700000762939453</v>
       </c>
       <c r="O136">
         <v>5949</v>
@@ -8757,16 +8761,16 @@
         <v>1</v>
       </c>
       <c r="R136">
-        <v>8.669899940490723</v>
+        <v>8.6698999404907227</v>
       </c>
       <c r="S136">
         <v>96</v>
       </c>
       <c r="T136">
-        <v>-.013840816915035248</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.3840816915035248E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>23</v>
       </c>
@@ -8789,25 +8793,25 @@
         <v>43489</v>
       </c>
       <c r="H137">
-        <v>8.260000228881836</v>
+        <v>8.2600002288818359</v>
       </c>
       <c r="I137">
-        <v>8.705499649047852</v>
+        <v>8.7054996490478516</v>
       </c>
       <c r="J137">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="K137">
         <v>18101</v>
       </c>
       <c r="L137">
-        <v>.0058479756116867065</v>
+        <v>5.8479756116867065E-3</v>
       </c>
       <c r="M137">
-        <v>8.34000015258789</v>
+        <v>8.3400001525878906</v>
       </c>
       <c r="N137">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="O137">
         <v>5949</v>
@@ -8819,16 +8823,16 @@
         <v>1</v>
       </c>
       <c r="R137">
-        <v>8.479999542236328</v>
+        <v>8.4799995422363281</v>
       </c>
       <c r="S137">
         <v>132</v>
       </c>
       <c r="T137">
-        <v>.0058479756116867065</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5.8479756116867065E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -8851,13 +8855,13 @@
         <v>43490</v>
       </c>
       <c r="H138">
-        <v>8.51099967956543</v>
+        <v>8.5109996795654297</v>
       </c>
       <c r="I138">
         <v>8.630000114440918</v>
       </c>
       <c r="J138">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="K138">
         <v>6837</v>
@@ -8866,10 +8870,10 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="N138">
-        <v>8.720000267028809</v>
+        <v>8.7200002670288086</v>
       </c>
       <c r="O138">
         <v>5949</v>
@@ -8881,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="R138">
-        <v>8.520000457763672</v>
+        <v>8.5200004577636719</v>
       </c>
       <c r="S138">
         <v>59</v>
@@ -8890,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -8916,22 +8920,22 @@
         <v>8.5</v>
       </c>
       <c r="I139">
-        <v>8.720000267028809</v>
+        <v>8.7200002670288086</v>
       </c>
       <c r="J139">
-        <v>8.510000228881836</v>
+        <v>8.5100002288818359</v>
       </c>
       <c r="K139">
         <v>1725</v>
       </c>
       <c r="L139">
-        <v>-.010465133935213089</v>
+        <v>-1.0465133935213089E-2</v>
       </c>
       <c r="M139">
         <v>8.5</v>
       </c>
       <c r="N139">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="O139">
         <v>5949</v>
@@ -8943,16 +8947,16 @@
         <v>1</v>
       </c>
       <c r="R139">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="S139">
         <v>31</v>
       </c>
       <c r="T139">
-        <v>-.010465133935213089</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.0465133935213089E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>23</v>
       </c>
@@ -8975,13 +8979,13 @@
         <v>43494</v>
       </c>
       <c r="H140">
-        <v>8.510000228881836</v>
+        <v>8.5100002288818359</v>
       </c>
       <c r="I140">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="J140">
-        <v>8.510000228881836</v>
+        <v>8.5100002288818359</v>
       </c>
       <c r="K140">
         <v>2781</v>
@@ -8993,7 +8997,7 @@
         <v>8.5</v>
       </c>
       <c r="N140">
-        <v>8.529999732971191</v>
+        <v>8.5299997329711914</v>
       </c>
       <c r="O140">
         <v>5949</v>
@@ -9005,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="R140">
-        <v>8.59000015258789</v>
+        <v>8.5900001525878906</v>
       </c>
       <c r="S140">
         <v>116</v>
@@ -9014,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>23</v>
       </c>
@@ -9037,25 +9041,25 @@
         <v>43495</v>
       </c>
       <c r="H141">
-        <v>8.359999656677246</v>
+        <v>8.3599996566772461</v>
       </c>
       <c r="I141">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="J141">
-        <v>8.359999656677246</v>
+        <v>8.3599996566772461</v>
       </c>
       <c r="K141">
         <v>6408</v>
       </c>
       <c r="L141">
-        <v>-.017626387998461723</v>
+        <v>-1.7626387998461723E-2</v>
       </c>
       <c r="M141">
-        <v>8.359999656677246</v>
+        <v>8.3599996566772461</v>
       </c>
       <c r="N141">
-        <v>8.529999732971191</v>
+        <v>8.5299997329711914</v>
       </c>
       <c r="O141">
         <v>5949</v>
@@ -9067,16 +9071,16 @@
         <v>1</v>
       </c>
       <c r="R141">
-        <v>8.529999732971191</v>
+        <v>8.5299997329711914</v>
       </c>
       <c r="S141">
         <v>42</v>
       </c>
       <c r="T141">
-        <v>-.017626387998461723</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.7626387998461723E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>23</v>
       </c>
@@ -9099,25 +9103,25 @@
         <v>43496</v>
       </c>
       <c r="H142">
-        <v>8.300000190734863</v>
+        <v>8.3000001907348633</v>
       </c>
       <c r="I142">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="J142">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="K142">
         <v>5179</v>
       </c>
       <c r="L142">
-        <v>.02870822139084339</v>
+        <v>2.8708221390843391E-2</v>
       </c>
       <c r="M142">
-        <v>8.34000015258789</v>
+        <v>8.3400001525878906</v>
       </c>
       <c r="N142">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="O142">
         <v>5949</v>
@@ -9129,16 +9133,16 @@
         <v>1</v>
       </c>
       <c r="R142">
-        <v>8.4399995803833</v>
+        <v>8.4399995803833008</v>
       </c>
       <c r="S142">
         <v>52</v>
       </c>
       <c r="T142">
-        <v>.02870822139084339</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.8708221390843391E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>23</v>
       </c>
@@ -9161,25 +9165,25 @@
         <v>43497</v>
       </c>
       <c r="H143">
-        <v>8.342300415039062</v>
+        <v>8.3423004150390625</v>
       </c>
       <c r="I143">
-        <v>8.569999694824219</v>
+        <v>8.5699996948242188</v>
       </c>
       <c r="J143">
-        <v>8.399999618530273</v>
+        <v>8.3999996185302734</v>
       </c>
       <c r="K143">
         <v>6708</v>
       </c>
       <c r="L143">
-        <v>-.023255901411175728</v>
+        <v>-2.3255901411175728E-2</v>
       </c>
       <c r="M143">
-        <v>8.399999618530273</v>
+        <v>8.3999996185302734</v>
       </c>
       <c r="N143">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="O143">
         <v>5949</v>
@@ -9197,10 +9201,10 @@
         <v>59</v>
       </c>
       <c r="T143">
-        <v>-.023255901411175728</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.3255901411175728E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>23</v>
       </c>
@@ -9223,25 +9227,25 @@
         <v>43500</v>
       </c>
       <c r="H144">
-        <v>8.362899780273438</v>
+        <v>8.3628997802734375</v>
       </c>
       <c r="I144">
-        <v>8.579999923706055</v>
+        <v>8.5799999237060547</v>
       </c>
       <c r="J144">
-        <v>8.550000190734863</v>
+        <v>8.5500001907348633</v>
       </c>
       <c r="K144">
         <v>4025</v>
       </c>
       <c r="L144">
-        <v>.01785721257328987</v>
+        <v>1.7857212573289871E-2</v>
       </c>
       <c r="M144">
-        <v>8.359999656677246</v>
+        <v>8.3599996566772461</v>
       </c>
       <c r="N144">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="O144">
         <v>5949</v>
@@ -9253,16 +9257,16 @@
         <v>1</v>
       </c>
       <c r="R144">
-        <v>8.399999618530273</v>
+        <v>8.3999996185302734</v>
       </c>
       <c r="S144">
         <v>44</v>
       </c>
       <c r="T144">
-        <v>.01785721257328987</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.7857212573289871E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>23</v>
       </c>
@@ -9285,25 +9289,25 @@
         <v>43501</v>
       </c>
       <c r="H145">
-        <v>8.539999961853027</v>
+        <v>8.5399999618530273</v>
       </c>
       <c r="I145">
-        <v>8.634499549865723</v>
+        <v>8.6344995498657227</v>
       </c>
       <c r="J145">
-        <v>8.539999961853027</v>
+        <v>8.5399999618530273</v>
       </c>
       <c r="K145">
         <v>7241</v>
       </c>
       <c r="L145">
-        <v>-.001169617404229939</v>
+        <v>-1.169617404229939E-3</v>
       </c>
       <c r="M145">
-        <v>8.550000190734863</v>
+        <v>8.5500001907348633</v>
       </c>
       <c r="N145">
-        <v>8.989999771118164</v>
+        <v>8.9899997711181641</v>
       </c>
       <c r="O145">
         <v>5949</v>
@@ -9315,16 +9319,16 @@
         <v>1</v>
       </c>
       <c r="R145">
-        <v>8.569999694824219</v>
+        <v>8.5699996948242188</v>
       </c>
       <c r="S145">
         <v>90</v>
       </c>
       <c r="T145">
-        <v>-.001169617404229939</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-1.169617404229939E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>23</v>
       </c>
@@ -9347,10 +9351,10 @@
         <v>43502</v>
       </c>
       <c r="H146">
-        <v>8.53499984741211</v>
+        <v>8.5349998474121094</v>
       </c>
       <c r="I146">
-        <v>8.786999702453613</v>
+        <v>8.7869997024536133</v>
       </c>
       <c r="J146">
         <v>8.619999885559082</v>
@@ -9359,13 +9363,13 @@
         <v>2305</v>
       </c>
       <c r="L146">
-        <v>.009367672726511955</v>
+        <v>9.3676727265119553E-3</v>
       </c>
       <c r="M146">
         <v>8.5</v>
       </c>
       <c r="N146">
-        <v>8.649999618530273</v>
+        <v>8.6499996185302734</v>
       </c>
       <c r="O146">
         <v>5949</v>
@@ -9377,16 +9381,16 @@
         <v>1</v>
       </c>
       <c r="R146">
-        <v>8.543000221252441</v>
+        <v>8.5430002212524414</v>
       </c>
       <c r="S146">
         <v>56</v>
       </c>
       <c r="T146">
-        <v>.009367672726511955</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9.3676727265119553E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>23</v>
       </c>
@@ -9409,19 +9413,19 @@
         <v>43503</v>
       </c>
       <c r="H147">
-        <v>8.508700370788574</v>
+        <v>8.5087003707885742</v>
       </c>
       <c r="I147">
-        <v>8.649999618530273</v>
+        <v>8.6499996185302734</v>
       </c>
       <c r="J147">
-        <v>8.5600004196167</v>
+        <v>8.5600004196166992</v>
       </c>
       <c r="K147">
         <v>3370</v>
       </c>
       <c r="L147">
-        <v>-.006960494909435511</v>
+        <v>-6.9604949094355106E-3</v>
       </c>
       <c r="M147">
         <v>8.369999885559082</v>
@@ -9439,16 +9443,16 @@
         <v>1</v>
       </c>
       <c r="R147">
-        <v>8.649999618530273</v>
+        <v>8.6499996185302734</v>
       </c>
       <c r="S147">
         <v>61</v>
       </c>
       <c r="T147">
-        <v>-.006960494909435511</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-6.9604949094355106E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>23</v>
       </c>
@@ -9471,7 +9475,7 @@
         <v>43504</v>
       </c>
       <c r="H148">
-        <v>8.40060043334961</v>
+        <v>8.4006004333496094</v>
       </c>
       <c r="I148">
         <v>8.630000114440918</v>
@@ -9483,13 +9487,13 @@
         <v>2985</v>
       </c>
       <c r="L148">
-        <v>-.007009394466876984</v>
+        <v>-7.0093944668769836E-3</v>
       </c>
       <c r="M148">
         <v>8.5</v>
       </c>
       <c r="N148">
-        <v>8.550000190734863</v>
+        <v>8.5500001907348633</v>
       </c>
       <c r="O148">
         <v>5949</v>
@@ -9507,10 +9511,10 @@
         <v>44</v>
       </c>
       <c r="T148">
-        <v>-.007009394466876984</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-7.0093944668769836E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>23</v>
       </c>
@@ -9533,22 +9537,22 @@
         <v>43507</v>
       </c>
       <c r="H149">
-        <v>8.489999771118164</v>
+        <v>8.4899997711181641</v>
       </c>
       <c r="I149">
-        <v>8.689599990844727</v>
+        <v>8.6895999908447266</v>
       </c>
       <c r="J149">
-        <v>8.649999618530273</v>
+        <v>8.6499996185302734</v>
       </c>
       <c r="K149">
         <v>8497</v>
       </c>
       <c r="L149">
-        <v>.017647013068199158</v>
+        <v>1.7647013068199158E-2</v>
       </c>
       <c r="M149">
-        <v>8.649999618530273</v>
+        <v>8.6499996185302734</v>
       </c>
       <c r="N149">
         <v>8.75</v>
@@ -9563,16 +9567,16 @@
         <v>1</v>
       </c>
       <c r="R149">
-        <v>8.510000228881836</v>
+        <v>8.5100002288818359</v>
       </c>
       <c r="S149">
         <v>78</v>
       </c>
       <c r="T149">
-        <v>.017647013068199158</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.7647013068199158E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>23</v>
       </c>
@@ -9595,22 +9599,22 @@
         <v>43508</v>
       </c>
       <c r="H150">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="I150">
-        <v>8.720000267028809</v>
+        <v>8.7200002670288086</v>
       </c>
       <c r="J150">
-        <v>8.627300262451172</v>
+        <v>8.6273002624511719</v>
       </c>
       <c r="K150">
         <v>9115</v>
       </c>
       <c r="L150">
-        <v>-.0026242032181471586</v>
+        <v>-2.6242032181471586E-3</v>
       </c>
       <c r="M150">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="N150">
         <v>8.75</v>
@@ -9625,16 +9629,16 @@
         <v>1</v>
       </c>
       <c r="R150">
-        <v>8.720000267028809</v>
+        <v>8.7200002670288086</v>
       </c>
       <c r="S150">
         <v>50</v>
       </c>
       <c r="T150">
-        <v>-.0026242032181471586</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-2.6242032181471586E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -9657,22 +9661,22 @@
         <v>43509</v>
       </c>
       <c r="H151">
-        <v>8.670000076293945</v>
+        <v>8.6700000762939453</v>
       </c>
       <c r="I151">
-        <v>8.739999771118164</v>
+        <v>8.7399997711181641</v>
       </c>
       <c r="J151">
-        <v>8.680000305175781</v>
+        <v>8.6800003051757813</v>
       </c>
       <c r="K151">
         <v>5116</v>
       </c>
       <c r="L151">
-        <v>.006108520552515984</v>
+        <v>6.1085205525159836E-3</v>
       </c>
       <c r="M151">
-        <v>8.680000305175781</v>
+        <v>8.6800003051757813</v>
       </c>
       <c r="N151">
         <v>8.75</v>
@@ -9687,16 +9691,16 @@
         <v>1</v>
       </c>
       <c r="R151">
-        <v>8.6899995803833</v>
+        <v>8.6899995803833008</v>
       </c>
       <c r="S151">
         <v>45</v>
       </c>
       <c r="T151">
-        <v>.006108520552515984</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+        <v>6.1085205525159836E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>23</v>
       </c>
@@ -9725,19 +9729,19 @@
         <v>9</v>
       </c>
       <c r="J152">
-        <v>8.649999618530273</v>
+        <v>8.6499996185302734</v>
       </c>
       <c r="K152">
         <v>6818</v>
       </c>
       <c r="L152">
-        <v>-.003456300124526024</v>
+        <v>-3.4563001245260239E-3</v>
       </c>
       <c r="M152">
-        <v>8.520000457763672</v>
+        <v>8.5200004577636719</v>
       </c>
       <c r="N152">
-        <v>8.970000267028809</v>
+        <v>8.9700002670288086</v>
       </c>
       <c r="O152">
         <v>5949</v>
@@ -9749,16 +9753,16 @@
         <v>1</v>
       </c>
       <c r="R152">
-        <v>8.6899995803833</v>
+        <v>8.6899995803833008</v>
       </c>
       <c r="S152">
         <v>72</v>
       </c>
       <c r="T152">
-        <v>-.003456300124526024</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-3.4563001245260239E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>23</v>
       </c>
@@ -9781,10 +9785,10 @@
         <v>43511</v>
       </c>
       <c r="H153">
-        <v>8.504300117492676</v>
+        <v>8.5043001174926758</v>
       </c>
       <c r="I153">
-        <v>9.100000381469727</v>
+        <v>9.1000003814697266</v>
       </c>
       <c r="J153">
         <v>9</v>
@@ -9793,13 +9797,13 @@
         <v>14625</v>
       </c>
       <c r="L153">
-        <v>.04046247527003288</v>
+        <v>4.0462475270032883E-2</v>
       </c>
       <c r="M153">
         <v>9</v>
       </c>
       <c r="N153">
-        <v>9.100000381469727</v>
+        <v>9.1000003814697266</v>
       </c>
       <c r="O153">
         <v>5949</v>
@@ -9817,10 +9821,10 @@
         <v>136</v>
       </c>
       <c r="T153">
-        <v>.04046247527003288</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.0462475270032883E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>23</v>
       </c>
@@ -9843,25 +9847,25 @@
         <v>43515</v>
       </c>
       <c r="H154">
-        <v>8.68340015411377</v>
+        <v>8.6834001541137695</v>
       </c>
       <c r="I154">
         <v>9.25</v>
       </c>
       <c r="J154">
-        <v>9.07979965209961</v>
+        <v>9.0797996520996094</v>
       </c>
       <c r="K154">
         <v>14736</v>
       </c>
       <c r="L154">
-        <v>.00886662770062685</v>
+        <v>8.8666277006268501E-3</v>
       </c>
       <c r="M154">
         <v>9</v>
       </c>
       <c r="N154">
-        <v>9.149999618530273</v>
+        <v>9.1499996185302734</v>
       </c>
       <c r="O154">
         <v>5949</v>
@@ -9873,16 +9877,16 @@
         <v>1</v>
       </c>
       <c r="R154">
-        <v>8.989999771118164</v>
+        <v>8.9899997711181641</v>
       </c>
       <c r="S154">
         <v>162</v>
       </c>
       <c r="T154">
-        <v>.00886662770062685</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.8666277006268501E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -9905,25 +9909,25 @@
         <v>43516</v>
       </c>
       <c r="H155">
-        <v>8.90999984741211</v>
+        <v>8.9099998474121094</v>
       </c>
       <c r="I155">
         <v>9.25</v>
       </c>
       <c r="J155">
-        <v>9.079999923706055</v>
+        <v>9.0799999237060547</v>
       </c>
       <c r="K155">
         <v>8930</v>
       </c>
       <c r="L155">
-        <v>2.2056830857763998e-05</v>
+        <v>2.2056830857763998E-5</v>
       </c>
       <c r="M155">
-        <v>9.079999923706055</v>
+        <v>9.0799999237060547</v>
       </c>
       <c r="N155">
-        <v>9.229999542236328</v>
+        <v>9.2299995422363281</v>
       </c>
       <c r="O155">
         <v>5949</v>
@@ -9935,16 +9939,16 @@
         <v>1</v>
       </c>
       <c r="R155">
-        <v>9.09000015258789</v>
+        <v>9.0900001525878906</v>
       </c>
       <c r="S155">
         <v>63</v>
       </c>
       <c r="T155">
-        <v>2.2056830857763998e-05</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.2056830857763998E-5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -9967,25 +9971,25 @@
         <v>43517</v>
       </c>
       <c r="H156">
-        <v>8.930000305175781</v>
+        <v>8.9300003051757813</v>
       </c>
       <c r="I156">
-        <v>9.168000221252441</v>
+        <v>9.1680002212524414</v>
       </c>
       <c r="J156">
-        <v>9.168000221252441</v>
+        <v>9.1680002212524414</v>
       </c>
       <c r="K156">
         <v>6774</v>
       </c>
       <c r="L156">
-        <v>.009691663086414337</v>
+        <v>9.6916630864143372E-3</v>
       </c>
       <c r="M156">
-        <v>9.149999618530273</v>
+        <v>9.1499996185302734</v>
       </c>
       <c r="N156">
-        <v>9.199999809265137</v>
+        <v>9.1999998092651367</v>
       </c>
       <c r="O156">
         <v>5949</v>
@@ -9997,16 +10001,16 @@
         <v>1</v>
       </c>
       <c r="R156">
-        <v>9.039999961853027</v>
+        <v>9.0399999618530273</v>
       </c>
       <c r="S156">
         <v>57</v>
       </c>
       <c r="T156">
-        <v>.009691663086414337</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9.6916630864143372E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>23</v>
       </c>
@@ -10029,25 +10033,25 @@
         <v>43518</v>
       </c>
       <c r="H157">
-        <v>9.034000396728516</v>
+        <v>9.0340003967285156</v>
       </c>
       <c r="I157">
-        <v>9.198200225830078</v>
+        <v>9.1982002258300781</v>
       </c>
       <c r="J157">
-        <v>9.100000381469727</v>
+        <v>9.1000003814697266</v>
       </c>
       <c r="K157">
         <v>6395</v>
       </c>
       <c r="L157">
-        <v>-.007417085114866495</v>
+        <v>-7.4170851148664951E-3</v>
       </c>
       <c r="M157">
-        <v>9.029999732971191</v>
+        <v>9.0299997329711914</v>
       </c>
       <c r="N157">
-        <v>9.199999809265137</v>
+        <v>9.1999998092651367</v>
       </c>
       <c r="O157">
         <v>5949</v>
@@ -10059,16 +10063,16 @@
         <v>1</v>
       </c>
       <c r="R157">
-        <v>9.104999542236328</v>
+        <v>9.1049995422363281</v>
       </c>
       <c r="S157">
         <v>91</v>
       </c>
       <c r="T157">
-        <v>-.007417085114866495</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-7.4170851148664951E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>23</v>
       </c>
@@ -10091,10 +10095,10 @@
         <v>43521</v>
       </c>
       <c r="H158">
-        <v>9.033699989318848</v>
+        <v>9.0336999893188477</v>
       </c>
       <c r="I158">
-        <v>9.300000190734863</v>
+        <v>9.3000001907348633</v>
       </c>
       <c r="J158">
         <v>9.25</v>
@@ -10103,13 +10107,13 @@
         <v>6496</v>
       </c>
       <c r="L158">
-        <v>.016483474522829056</v>
+        <v>1.6483474522829056E-2</v>
       </c>
       <c r="M158">
         <v>9.25</v>
       </c>
       <c r="N158">
-        <v>9.300000190734863</v>
+        <v>9.3000001907348633</v>
       </c>
       <c r="O158">
         <v>5949</v>
@@ -10121,16 +10125,16 @@
         <v>1</v>
       </c>
       <c r="R158">
-        <v>9.050000190734863</v>
+        <v>9.0500001907348633</v>
       </c>
       <c r="S158">
         <v>59</v>
       </c>
       <c r="T158">
-        <v>.016483474522829056</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.6483474522829056E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>23</v>
       </c>
@@ -10153,25 +10157,25 @@
         <v>43522</v>
       </c>
       <c r="H159">
-        <v>9.069999694824219</v>
+        <v>9.0699996948242188</v>
       </c>
       <c r="I159">
-        <v>9.449999809265137</v>
+        <v>9.4499998092651367</v>
       </c>
       <c r="J159">
-        <v>9.449999809265137</v>
+        <v>9.4499998092651367</v>
       </c>
       <c r="K159">
         <v>8833</v>
       </c>
       <c r="L159">
-        <v>.021621601656079292</v>
+        <v>2.1621601656079292E-2</v>
       </c>
       <c r="M159">
-        <v>9.449999809265137</v>
+        <v>9.4499998092651367</v>
       </c>
       <c r="N159">
-        <v>9.550000190734863</v>
+        <v>9.5500001907348633</v>
       </c>
       <c r="O159">
         <v>5949</v>
@@ -10183,16 +10187,16 @@
         <v>1</v>
       </c>
       <c r="R159">
-        <v>9.300000190734863</v>
+        <v>9.3000001907348633</v>
       </c>
       <c r="S159">
         <v>105</v>
       </c>
       <c r="T159">
-        <v>.021621601656079292</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.1621601656079292E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>23</v>
       </c>
@@ -10215,22 +10219,22 @@
         <v>43523</v>
       </c>
       <c r="H160">
-        <v>9.300000190734863</v>
+        <v>9.3000001907348633</v>
       </c>
       <c r="I160">
-        <v>9.470000267028809</v>
+        <v>9.4700002670288086</v>
       </c>
       <c r="J160">
-        <v>9.356800079345703</v>
+        <v>9.3568000793457031</v>
       </c>
       <c r="K160">
         <v>11661</v>
       </c>
       <c r="L160">
-        <v>-.009862405247986317</v>
+        <v>-9.8624052479863167E-3</v>
       </c>
       <c r="M160">
-        <v>9.300000190734863</v>
+        <v>9.3000001907348633</v>
       </c>
       <c r="N160">
         <v>9.5</v>
@@ -10251,10 +10255,10 @@
         <v>123</v>
       </c>
       <c r="T160">
-        <v>-.009862405247986317</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-9.8624052479863167E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>23</v>
       </c>
@@ -10277,25 +10281,25 @@
         <v>43524</v>
       </c>
       <c r="H161">
-        <v>9.300000190734863</v>
+        <v>9.3000001907348633</v>
       </c>
       <c r="I161">
-        <v>9.479999542236328</v>
+        <v>9.4799995422363281</v>
       </c>
       <c r="J161">
-        <v>9.479999542236328</v>
+        <v>9.4799995422363281</v>
       </c>
       <c r="K161">
         <v>15525</v>
       </c>
       <c r="L161">
-        <v>.013166837394237518</v>
+        <v>1.3166837394237518E-2</v>
       </c>
       <c r="M161">
-        <v>9.210000038146973</v>
+        <v>9.2100000381469727</v>
       </c>
       <c r="N161">
-        <v>9.479999542236328</v>
+        <v>9.4799995422363281</v>
       </c>
       <c r="O161">
         <v>5958</v>
@@ -10307,16 +10311,17 @@
         <v>1</v>
       </c>
       <c r="R161">
-        <v>9.329999923706055</v>
+        <v>9.3299999237060547</v>
       </c>
       <c r="S161">
         <v>94</v>
       </c>
       <c r="T161">
-        <v>.013166837394237518</v>
+        <v>1.3166837394237518E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
